--- a/programs/autoencoder/data/result_not_consider_enc.xlsx
+++ b/programs/autoencoder/data/result_not_consider_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1266337633132935</v>
+        <v>1.064822316169739</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1635785400867462</v>
+        <v>-0.04164904356002808</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1305114030838013</v>
+        <v>-1.375981688499451</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.09737317264080048</v>
+        <v>2.063957691192627</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1114795431494713</v>
+        <v>0.1765505373477936</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1383901387453079</v>
+        <v>-2.815639734268188</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.05658844485878944</v>
+        <v>2.40887975692749</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.08602540194988251</v>
+        <v>-0.6232457160949707</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1187704876065254</v>
+        <v>-3.239242792129517</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1325300931930542</v>
+        <v>1.629082798957825</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1170287504792213</v>
+        <v>-0.6074703931808472</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1628488302230835</v>
+        <v>-1.673290252685547</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.08879107236862183</v>
+        <v>1.567589402198792</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.113358274102211</v>
+        <v>-0.0002531707286834717</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1314180046319962</v>
+        <v>-2.228235244750977</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.05267288163304329</v>
+        <v>1.494975209236145</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06644321233034134</v>
+        <v>0.8136999607086182</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1419299244880676</v>
+        <v>-2.278538942337036</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01787827908992767</v>
+        <v>2.5413818359375</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003559567034244537</v>
+        <v>0.9386268258094788</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1287620663642883</v>
+        <v>-3.338956117630005</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1073506325483322</v>
+        <v>1.681219100952148</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1451949775218964</v>
+        <v>0.2339961230754852</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1283212155103683</v>
+        <v>-2.401736736297607</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.07070548832416534</v>
+        <v>1.053883790969849</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.096980981528759</v>
+        <v>0.7444173693656921</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1393646150827408</v>
+        <v>-1.815585970878601</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.09479859471321106</v>
+        <v>1.532069325447083</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.111231192946434</v>
+        <v>-0.05846309661865234</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1351932734251022</v>
+        <v>-2.052530288696289</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1223484799265862</v>
+        <v>1.10353696346283</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1611197292804718</v>
+        <v>0.2725840210914612</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1334299445152283</v>
+        <v>-1.569975018501282</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.140925407409668</v>
+        <v>0.8914260864257812</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1594654470682144</v>
+        <v>0.05533137917518616</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1114876419305801</v>
+        <v>-1.235564112663269</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.07847467064857483</v>
+        <v>0.9859943985939026</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1149556264281273</v>
+        <v>0.4652529060840607</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1333959549665451</v>
+        <v>-1.532548308372498</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.06828467547893524</v>
+        <v>0.9537653923034668</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1065470576286316</v>
+        <v>0.0200514942407608</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1017281636595726</v>
+        <v>-1.246458411216736</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1011005267500877</v>
+        <v>1.411916255950928</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1139019727706909</v>
+        <v>0.2824120223522186</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1446526944637299</v>
+        <v>-2.113831996917725</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0602320171892643</v>
+        <v>1.409728169441223</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.07427521795034409</v>
+        <v>0.4257485270500183</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1415538787841797</v>
+        <v>-2.170391798019409</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.07790105044841766</v>
+        <v>1.136167764663696</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1056504249572754</v>
+        <v>0.4473449885845184</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1324385702610016</v>
+        <v>-1.709232687950134</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1092343479394913</v>
+        <v>0.8707772493362427</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1394885778427124</v>
+        <v>0.09872562438249588</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1215605512261391</v>
+        <v>-1.345044493675232</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.07809253036975861</v>
+        <v>1.182219505310059</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1099506542086601</v>
+        <v>0.2960504591464996</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1250511109828949</v>
+        <v>-1.681905388832092</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1263903230428696</v>
+        <v>0.7911422252655029</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1432528793811798</v>
+        <v>0.2721798121929169</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1129566431045532</v>
+        <v>-1.132969379425049</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.108364000916481</v>
+        <v>2.259172439575195</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1112575903534889</v>
+        <v>-0.1619912087917328</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1432957649230957</v>
+        <v>-3.034210205078125</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.04102303087711334</v>
+        <v>2.195405006408691</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.07385235279798508</v>
+        <v>-0.7832902073860168</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1025194972753525</v>
+        <v>-3.176944494247437</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.01246410608291626</v>
+        <v>1.942516803741455</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.02959080785512924</v>
+        <v>0.8175973296165466</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1367131769657135</v>
+        <v>-2.756251335144043</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.1204795613884926</v>
+        <v>0.9937187433242798</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1476232558488846</v>
+        <v>-0.09491392970085144</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1077627241611481</v>
+        <v>-1.226880788803101</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0462651401758194</v>
+        <v>1.362732887268066</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.06539091467857361</v>
+        <v>0.881618857383728</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.145118236541748</v>
+        <v>-2.178836345672607</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.008270382881164551</v>
+        <v>2.024282455444336</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.02753706276416779</v>
+        <v>0.9266782999038696</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.138273611664772</v>
+        <v>-2.873103380203247</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.08556697517633438</v>
+        <v>1.724252104759216</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1270529478788376</v>
+        <v>0.08910465240478516</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1337746381759644</v>
+        <v>-2.527070999145508</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.08714113384485245</v>
+        <v>1.840730786323547</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1058211177587509</v>
+        <v>-0.2594221234321594</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1413352489471436</v>
+        <v>-2.610584020614624</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.1147103756666183</v>
+        <v>0.9847190380096436</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1529090851545334</v>
+        <v>0.487186998128891</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1195041537284851</v>
+        <v>-1.484424948692322</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.06882257014513016</v>
+        <v>1.453584313392639</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.08168776333332062</v>
+        <v>0.5924927592277527</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1411566734313965</v>
+        <v>-2.217738628387451</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.131578728556633</v>
+        <v>0.8717028498649597</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1603387743234634</v>
+        <v>0.2629119753837585</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1066669374704361</v>
+        <v>-1.070317506790161</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.05603547394275665</v>
+        <v>2.699054718017578</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.08663631975650787</v>
+        <v>-0.4339592456817627</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1166828498244286</v>
+        <v>-3.504837989807129</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.07279732823371887</v>
+        <v>1.500352263450623</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0834457129240036</v>
+        <v>0.5792702436447144</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.14105224609375</v>
+        <v>-2.291802167892456</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.09201592206954956</v>
+        <v>1.927744746208191</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.112378403544426</v>
+        <v>-0.00780719518661499</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1325759291648865</v>
+        <v>-2.670125246047974</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.01123374700546265</v>
+        <v>1.881891489028931</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.02362234890460968</v>
+        <v>0.9518064260482788</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1417788118124008</v>
+        <v>-2.734437227249146</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.1002646684646606</v>
+        <v>1.867401242256165</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1262870877981186</v>
+        <v>-0.2469490766525269</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.116482712328434</v>
+        <v>-2.736829042434692</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.02213821560144424</v>
+        <v>1.77472198009491</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.03564992547035217</v>
+        <v>0.9135001301765442</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1378081142902374</v>
+        <v>-2.523428678512573</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1447874158620834</v>
+        <v>1.062904238700867</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1769049912691116</v>
+        <v>-0.215344250202179</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.135505735874176</v>
+        <v>-1.170366883277893</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.07337478548288345</v>
+        <v>1.070438385009766</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.09103377163410187</v>
+        <v>0.6961855292320251</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1289457082748413</v>
+        <v>-1.818252801895142</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.06421287357807159</v>
+        <v>1.979294180870056</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.09201882779598236</v>
+        <v>-0.292686402797699</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1228326261043549</v>
+        <v>-2.737233638763428</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.07570870965719223</v>
+        <v>1.116027116775513</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.09071503579616547</v>
+        <v>0.6790114641189575</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1364890336990356</v>
+        <v>-1.857584118843079</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.07087439298629761</v>
+        <v>1.69894278049469</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.08872763067483902</v>
+        <v>0.291052520275116</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1342232674360275</v>
+        <v>-2.406249284744263</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1106919571757317</v>
+        <v>1.114075422286987</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1512340158224106</v>
+        <v>0.3113318979740143</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1284653097391129</v>
+        <v>-1.552818894386292</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1096965223550797</v>
+        <v>1.128364205360413</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.111903227865696</v>
+        <v>0.4373328983783722</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1222961917519569</v>
+        <v>-1.669184327125549</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1221783310174942</v>
+        <v>0.8566586971282959</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1590066701173782</v>
+        <v>0.3316530585289001</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1254434138536453</v>
+        <v>-1.293782830238342</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.134472668170929</v>
+        <v>1.31121551990509</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1751792430877686</v>
+        <v>-0.07090547680854797</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1294805854558945</v>
+        <v>-1.679836750030518</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.04752004146575928</v>
+        <v>3.094841241836548</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.1040663942694664</v>
+        <v>-1.180449247360229</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1291335225105286</v>
+        <v>-3.820108413696289</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.08576174080371857</v>
+        <v>0.9936765432357788</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.1169774755835533</v>
+        <v>0.4251130819320679</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1222859621047974</v>
+        <v>-1.510976552963257</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.08755422383546829</v>
+        <v>0.9574111700057983</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.1346326917409897</v>
+        <v>0.6168598532676697</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.132063701748848</v>
+        <v>-1.489960312843323</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.03570840880274773</v>
+        <v>1.516037344932556</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.05488654226064682</v>
+        <v>0.8618137836456299</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1427022814750671</v>
+        <v>-2.291433572769165</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.1239382401108742</v>
+        <v>1.286680459976196</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.1156673431396484</v>
+        <v>-0.6684821844100952</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.1071681007742882</v>
+        <v>-1.555271744728088</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.0588386245071888</v>
+        <v>1.174940347671509</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.07293735444545746</v>
+        <v>0.4261013269424438</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.1435089558362961</v>
+        <v>-1.791075587272644</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.06747221946716309</v>
+        <v>1.899595618247986</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.08317872136831284</v>
+        <v>0.4512217044830322</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.1333807855844498</v>
+        <v>-2.665350198745728</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1093698740005493</v>
+        <v>0.5746517181396484</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1615541577339172</v>
+        <v>0.6225087642669678</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1269939094781876</v>
+        <v>-1.190290570259094</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.05633844807744026</v>
+        <v>1.565398812294006</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.06602034717798233</v>
+        <v>0.5925431847572327</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.1370967179536819</v>
+        <v>-2.293606281280518</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1163356378674507</v>
+        <v>1.426409602165222</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.1420078277587891</v>
+        <v>-0.3858078718185425</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1420816779136658</v>
+        <v>-1.491119146347046</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.08151843398809433</v>
+        <v>0.962990403175354</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.1236831247806549</v>
+        <v>0.5196253061294556</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.1243656873703003</v>
+        <v>-1.450893759727478</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.09266701340675354</v>
+        <v>1.386579751968384</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.1089569702744484</v>
+        <v>0.1752111613750458</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.1422805339097977</v>
+        <v>-1.841312766075134</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.07732337713241577</v>
+        <v>1.966517925262451</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.1066662222146988</v>
+        <v>0.3696965575218201</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1316649317741394</v>
+        <v>-2.764906406402588</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.09981731325387955</v>
+        <v>1.116368532180786</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.1226487159729004</v>
+        <v>0.4813793897628784</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1318530589342117</v>
+        <v>-1.713269829750061</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.1494709402322769</v>
+        <v>0.6351937651634216</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.1684285402297974</v>
+        <v>0.04048523306846619</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.0912291407585144</v>
+        <v>-0.833200216293335</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.06906422972679138</v>
+        <v>1.546900153160095</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.107220396399498</v>
+        <v>0.3638344705104828</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.1335779130458832</v>
+        <v>-2.317750930786133</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.02033731341362</v>
+        <v>1.721983790397644</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.03870492428541183</v>
+        <v>0.7707837224006653</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.1385319381952286</v>
+        <v>-2.476758241653442</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1025362759828568</v>
+        <v>0.9088069200515747</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1454763412475586</v>
+        <v>0.4595049619674683</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.1336164474487305</v>
+        <v>-1.44915509223938</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.09301837533712387</v>
+        <v>0.8433783054351807</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.1417963951826096</v>
+        <v>0.5993374586105347</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.1347337812185287</v>
+        <v>-1.429920315742493</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.07593156397342682</v>
+        <v>0.9396625161170959</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.1173669025301933</v>
+        <v>0.4212340712547302</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.1228010505437851</v>
+        <v>-1.309623122215271</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.0783807709813118</v>
+        <v>1.441908717155457</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.09868967533111572</v>
+        <v>0.1027194038033485</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.1264961361885071</v>
+        <v>-2.097599983215332</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.09113247692584991</v>
+        <v>1.709291338920593</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.1300935745239258</v>
+        <v>0.2031574994325638</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.1301812827587128</v>
+        <v>-2.457167625427246</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.007131204009056091</v>
+        <v>1.698032975196838</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.03013258427381516</v>
+        <v>0.7274425625801086</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.1352890133857727</v>
+        <v>-2.401652812957764</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.09813354909420013</v>
+        <v>0.9748265743255615</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.1236423775553703</v>
+        <v>0.2156169712543488</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.1280633360147476</v>
+        <v>-1.364721417427063</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.08136509358882904</v>
+        <v>3.264718770980835</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.1165323257446289</v>
+        <v>-1.99147629737854</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.1103057637810707</v>
+        <v>-3.866111278533936</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.009879589080810547</v>
+        <v>2.192897796630859</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.01529619097709656</v>
+        <v>0.7656630277633667</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.1186906769871712</v>
+        <v>-2.744967699050903</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.02107115834951401</v>
+        <v>1.797521591186523</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.04316585510969162</v>
+        <v>0.6249644160270691</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1335178315639496</v>
+        <v>-2.563390731811523</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.06870320439338684</v>
+        <v>1.560169816017151</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.09204448759555817</v>
+        <v>0.3522103428840637</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.1420340240001678</v>
+        <v>-2.377958297729492</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.07367321848869324</v>
+        <v>1.323212027549744</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.09874223172664642</v>
+        <v>0.6139702796936035</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.1390394866466522</v>
+        <v>-2.126373291015625</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.08168987929821014</v>
+        <v>1.958701133728027</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.1102660298347473</v>
+        <v>0.4022115468978882</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.1290263235569</v>
+        <v>-2.717780828475952</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.08504142612218857</v>
+        <v>1.391397356987</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.1114498525857925</v>
+        <v>0.3752670884132385</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.1326042115688324</v>
+        <v>-2.055213928222656</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.04030947759747505</v>
+        <v>1.340826272964478</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.05912115424871445</v>
+        <v>0.8942512273788452</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.1455659866333008</v>
+        <v>-2.137810945510864</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1057160496711731</v>
+        <v>1.22130298614502</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.1275472193956375</v>
+        <v>0.2484446465969086</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.1441657543182373</v>
+        <v>-1.7053462266922</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.1107339560985565</v>
+        <v>1.816940665245056</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.1434547901153564</v>
+        <v>-0.5476042628288269</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.1272787153720856</v>
+        <v>-2.01736044883728</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.02917823195457458</v>
+        <v>1.751451849937439</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.03929079324007034</v>
+        <v>0.8909705281257629</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1401380002498627</v>
+        <v>-2.518600463867188</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.09334088116884232</v>
+        <v>1.107262253761292</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.1313612759113312</v>
+        <v>0.1579711437225342</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.1243942230939865</v>
+        <v>-1.464217185974121</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.03660445660352707</v>
+        <v>1.448187589645386</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.05051778256893158</v>
+        <v>0.9080398678779602</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.144079864025116</v>
+        <v>-2.238886117935181</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.06140571087598801</v>
+        <v>1.15563952922821</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.07797766476869583</v>
+        <v>0.5994394421577454</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.1465878486633301</v>
+        <v>-1.882079601287842</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.08455818146467209</v>
+        <v>1.208953976631165</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.09912930428981781</v>
+        <v>0.4423531293869019</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.1487771272659302</v>
+        <v>-1.836594462394714</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.1029512211680412</v>
+        <v>1.350088953971863</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1040188074111938</v>
+        <v>0.01038888096809387</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.1566578894853592</v>
+        <v>-1.67530620098114</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.1101790592074394</v>
+        <v>0.9814653396606445</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1527151316404343</v>
+        <v>0.2045563757419586</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.1186971515417099</v>
+        <v>-1.315136075019836</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.0615549199283123</v>
+        <v>0.9922133684158325</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.09778784960508347</v>
+        <v>0.7160353064537048</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.1472016274929047</v>
+        <v>-1.766255497932434</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.07923374325037003</v>
+        <v>1.41058075428009</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.0934620127081871</v>
+        <v>0.3933592140674591</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.1442923992872238</v>
+        <v>-2.139580726623535</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.120305210351944</v>
+        <v>0.7628647089004517</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1251027584075928</v>
+        <v>-0.1563420593738556</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.08800328522920609</v>
+        <v>-0.8233500719070435</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.07420927286148071</v>
+        <v>1.178215265274048</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.09153930097818375</v>
+        <v>0.3924711942672729</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.1316884458065033</v>
+        <v>-1.752081036567688</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.1434944123029709</v>
+        <v>0.5288125872612</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.1583409309387207</v>
+        <v>-0.05081036686897278</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.1137562766671181</v>
+        <v>-0.6891789436340332</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.08735755085945129</v>
+        <v>1.286489844322205</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.09610361605882645</v>
+        <v>0.2083693444728851</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.1445009559392929</v>
+        <v>-1.704500317573547</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.01659823209047318</v>
+        <v>1.733124852180481</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.03383075445890427</v>
+        <v>0.8916862607002258</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.1475275009870529</v>
+        <v>-2.590360641479492</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.01247569173574448</v>
+        <v>2.874595642089844</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.01826116442680359</v>
+        <v>0.6577103137969971</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.1247390061616898</v>
+        <v>-3.621588468551636</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0282156839966774</v>
+        <v>2.535556793212891</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02109399437904358</v>
+        <v>0.9553551077842712</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.1300224810838699</v>
+        <v>-3.244706392288208</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.08059504628181458</v>
+        <v>1.628251433372498</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.1119140684604645</v>
+        <v>0.04047076404094696</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1256872415542603</v>
+        <v>-2.203426599502563</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1164063513278961</v>
+        <v>1.668008208274841</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.1495448648929596</v>
+        <v>0.04432293772697449</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.1384044289588928</v>
+        <v>-2.314655780792236</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05871265754103661</v>
+        <v>2.942140579223633</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.06440241634845734</v>
+        <v>0.5185306072235107</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.1275608241558075</v>
+        <v>-3.570735454559326</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1291083097457886</v>
+        <v>2.007224082946777</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.1652549654245377</v>
+        <v>-0.1623799204826355</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.1335746943950653</v>
+        <v>-2.776906251907349</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.07936675101518631</v>
+        <v>0.9445703029632568</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.1272611618041992</v>
+        <v>0.5902227759361267</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.1332901120185852</v>
+        <v>-1.453662157058716</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.1247639358043671</v>
+        <v>1.654966354370117</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.1177121177315712</v>
+        <v>-0.6956174969673157</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.1178842410445213</v>
+        <v>-1.825220704078674</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.1483776122331619</v>
+        <v>0.4759194850921631</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.1798071563243866</v>
+        <v>-0.464272677898407</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1064863204956055</v>
+        <v>-1.455116629600525</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.1104153245687485</v>
+        <v>1.793397307395935</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.1432307958602905</v>
+        <v>-0.2068108320236206</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.1354709267616272</v>
+        <v>-2.272535562515259</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.0646091029047966</v>
+        <v>1.36928117275238</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.08619394898414612</v>
+        <v>0.4168652892112732</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.1364137977361679</v>
+        <v>-2.069418907165527</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.03304074704647064</v>
+        <v>1.351810812950134</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.05228149890899658</v>
+        <v>0.9005820751190186</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.1463727951049805</v>
+        <v>-2.159504652023315</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.1145405247807503</v>
+        <v>1.463499426841736</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.1376089155673981</v>
+        <v>-0.5009486079216003</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.1344046890735626</v>
+        <v>-1.40532124042511</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.1174637228250504</v>
+        <v>0.8873554468154907</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.1555009931325912</v>
+        <v>0.21293705701828</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.1185068041086197</v>
+        <v>-1.228046894073486</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.0909067690372467</v>
+        <v>1.385841488838196</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.1105603575706482</v>
+        <v>-0.7537946105003357</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1335542351007462</v>
+        <v>-1.673981189727783</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.02655551582574844</v>
+        <v>1.911699891090393</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.05050831288099289</v>
+        <v>0.6255022287368774</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.1330612152814865</v>
+        <v>-2.711031913757324</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.04648312926292419</v>
+        <v>1.980978012084961</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.08156388998031616</v>
+        <v>0.1418495178222656</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1238617449998856</v>
+        <v>-2.777989149093628</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.02391176670789719</v>
+        <v>2.768428325653076</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02225665748119354</v>
+        <v>1.068601608276367</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1229997873306274</v>
+        <v>-3.506153106689453</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.06550048291683197</v>
+        <v>1.027672290802002</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.09839550405740738</v>
+        <v>0.6606296300888062</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.1414082050323486</v>
+        <v>-1.743634104728699</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.02307997643947601</v>
+        <v>1.676274061203003</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.03703049570322037</v>
+        <v>0.9359176158905029</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.1424631327390671</v>
+        <v>-2.472972869873047</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.06586733460426331</v>
+        <v>1.26135528087616</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.06678399443626404</v>
+        <v>0.3985657393932343</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.1399994790554047</v>
+        <v>-1.86251962184906</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.07307399809360504</v>
+        <v>1.950815796852112</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.09940778464078903</v>
+        <v>-0.5029903054237366</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.1202798634767532</v>
+        <v>-2.888408899307251</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.03167802840471268</v>
+        <v>1.472266793251038</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.04940573126077652</v>
+        <v>0.8712379932403564</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.1445229649543762</v>
+        <v>-2.253138303756714</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02675006911158562</v>
+        <v>2.628165721893311</v>
       </c>
       <c r="C119" t="n">
-        <v>0.02102188766002655</v>
+        <v>0.9725440740585327</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.1273638308048248</v>
+        <v>-3.359311103820801</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.08917228877544403</v>
+        <v>0.9584162831306458</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.1099307686090469</v>
+        <v>0.1969662308692932</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.131384015083313</v>
+        <v>-1.396170973777771</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.07302124053239822</v>
+        <v>1.115890860557556</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.1018107682466507</v>
+        <v>0.1145481318235397</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.1285025030374527</v>
+        <v>-1.449645400047302</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.07217534631490707</v>
+        <v>1.662657856941223</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1072092801332474</v>
+        <v>0.1541180014610291</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1346945762634277</v>
+        <v>-2.245342493057251</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.1128381416201591</v>
+        <v>1.191490769386292</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.1548470705747604</v>
+        <v>0.03605501353740692</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.129556804895401</v>
+        <v>-1.487816095352173</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.0693415105342865</v>
+        <v>1.217071175575256</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.07305412739515305</v>
+        <v>0.5464585423469543</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.1483052968978882</v>
+        <v>-1.983440756797791</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.1084041148424149</v>
+        <v>1.82740592956543</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.1541365683078766</v>
+        <v>0.09395989775657654</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.1190741956233978</v>
+        <v>-2.59549880027771</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.07466335594654083</v>
+        <v>1.048284649848938</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1003435403108597</v>
+        <v>0.5919099450111389</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.132466048002243</v>
+        <v>-1.718806862831116</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.02178121358156204</v>
+        <v>1.662573456764221</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.04272876679897308</v>
+        <v>0.7258812785148621</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.1400511562824249</v>
+        <v>-2.437620878219604</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.07168427109718323</v>
+        <v>1.438667297363281</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.09715680778026581</v>
+        <v>0.1762630343437195</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.1295532733201981</v>
+        <v>-2.190434455871582</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.1536805629730225</v>
+        <v>0.6718858480453491</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.1834479123353958</v>
+        <v>0.02144969999790192</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.08752882480621338</v>
+        <v>-0.7313226461410522</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.05347375199198723</v>
+        <v>1.131671786308289</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.07370405644178391</v>
+        <v>0.5501434803009033</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.1395780146121979</v>
+        <v>-1.815572619438171</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.1075155809521675</v>
+        <v>0.7031184434890747</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.1626888513565063</v>
+        <v>0.4600586295127869</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.1216317862272263</v>
+        <v>-0.9895088672637939</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.09261453151702881</v>
+        <v>1.332983136177063</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.1068025529384613</v>
+        <v>0.2896788120269775</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1499791741371155</v>
+        <v>-1.935310244560242</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.08091872185468674</v>
+        <v>1.313214778900146</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.09092641621828079</v>
+        <v>0.2378714382648468</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.1407214552164078</v>
+        <v>-1.879015445709229</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.0834985077381134</v>
+        <v>1.263126611709595</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.09479910135269165</v>
+        <v>0.2937367856502533</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.1464497894048691</v>
+        <v>-1.758960723876953</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.05727684497833252</v>
+        <v>2.466137409210205</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.1027785390615463</v>
+        <v>-0.6328375339508057</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.1171680986881256</v>
+        <v>-3.303129196166992</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.09022235125303268</v>
+        <v>0.9176714420318604</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.1282581090927124</v>
+        <v>0.2030276656150818</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.1201915740966797</v>
+        <v>-1.342186093330383</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.04709521681070328</v>
+        <v>1.604168295860291</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.0650896430015564</v>
+        <v>0.153577983379364</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1291754841804504</v>
+        <v>-2.236013650894165</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.1064355000853539</v>
+        <v>1.586109399795532</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.1116671487689018</v>
+        <v>0.2606656849384308</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.156076654791832</v>
+        <v>-2.384772062301636</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.04979949444532394</v>
+        <v>1.411584377288818</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.07061512768268585</v>
+        <v>0.7345491647720337</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.1448901891708374</v>
+        <v>-2.219296216964722</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.08780291676521301</v>
+        <v>1.047954440116882</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.1257929503917694</v>
+        <v>0.1686057150363922</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.1203412786126137</v>
+        <v>-1.389122843742371</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.1022815331816673</v>
+        <v>1.459913849830627</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.1379912197589874</v>
+        <v>-0.4001001119613647</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.1279042065143585</v>
+        <v>-1.547678351402283</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.1260229051113129</v>
+        <v>0.9397037029266357</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.1729835718870163</v>
+        <v>0.4489572048187256</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.1319742500782013</v>
+        <v>-1.405013918876648</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.1330044120550156</v>
+        <v>0.6201163530349731</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.1471381038427353</v>
+        <v>0.1653955578804016</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.09956405311822891</v>
+        <v>-0.8996040821075439</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.1347248256206512</v>
+        <v>0.6520534753799438</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.1750954836606979</v>
+        <v>0.2409442067146301</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.1046260297298431</v>
+        <v>-0.8797013759613037</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.07531195878982544</v>
+        <v>1.190634250640869</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.09282556176185608</v>
+        <v>0.4503551721572876</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.1440489292144775</v>
+        <v>-1.810905814170837</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.09678903222084045</v>
+        <v>1.879408240318298</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.1151317358016968</v>
+        <v>-0.4030635952949524</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.1374763548374176</v>
+        <v>-2.583645582199097</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.05741493031382561</v>
+        <v>1.725325107574463</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.07555223256349564</v>
+        <v>0.4275473952293396</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1376255005598068</v>
+        <v>-2.503676652908325</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.01336203515529633</v>
+        <v>1.803518891334534</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.02877700328826904</v>
+        <v>0.8852687478065491</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.1422811448574066</v>
+        <v>-2.603693246841431</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.08293295651674271</v>
+        <v>0.9807286262512207</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.1165949404239655</v>
+        <v>0.4122647941112518</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.1223230361938477</v>
+        <v>-1.389992594718933</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.1186002269387245</v>
+        <v>0.5929974913597107</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.1738734990358353</v>
+        <v>0.4267665147781372</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.1259724944829941</v>
+        <v>-0.9440240859985352</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.0973813384771347</v>
+        <v>1.014836192131042</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.1344628036022186</v>
+        <v>0.4236482679843903</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.131822407245636</v>
+        <v>-1.58760929107666</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.1032678410410881</v>
+        <v>1.498034715652466</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.1094251796603203</v>
+        <v>-0.2829735279083252</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.154823049902916</v>
+        <v>-1.578052163124084</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.1037132292985916</v>
+        <v>1.818610310554504</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.1459299325942993</v>
+        <v>0.08108128607273102</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.1308287978172302</v>
+        <v>-2.594179630279541</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.1234096437692642</v>
+        <v>4.009172916412354</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.1789844632148743</v>
+        <v>-2.575506210327148</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.1197744905948639</v>
+        <v>-4.331282138824463</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.103062704205513</v>
+        <v>1.228538870811462</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.1651849448680878</v>
+        <v>0.1137772276997566</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.1192930638790131</v>
+        <v>-1.831764221191406</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.09954375773668289</v>
+        <v>1.359026432037354</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.1283780336380005</v>
+        <v>-0.1033335030078888</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.1359738111495972</v>
+        <v>-1.531269907951355</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.02657721936702728</v>
+        <v>1.536229729652405</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.04850933700799942</v>
+        <v>0.7698016166687012</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.1398745179176331</v>
+        <v>-2.274778604507446</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.04949221760034561</v>
+        <v>2.383519887924194</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.08036851137876511</v>
+        <v>-0.3190004229545593</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.1215410009026527</v>
+        <v>-3.139494657516479</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.05963654443621635</v>
+        <v>1.414436459541321</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.08218831568956375</v>
+        <v>0.3532713949680328</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.1357615441083908</v>
+        <v>-2.120121955871582</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.07175813615322113</v>
+        <v>1.140359282493591</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.0909610316157341</v>
+        <v>0.03538979589939117</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.1311183720827103</v>
+        <v>-1.52514636516571</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.05504648387432098</v>
+        <v>1.731910109519958</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.07370336353778839</v>
+        <v>0.4635696113109589</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.134713351726532</v>
+        <v>-2.520586967468262</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.04475680738687515</v>
+        <v>2.102151155471802</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.08150887489318848</v>
+        <v>0.1378907710313797</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.124022863805294</v>
+        <v>-2.923676490783691</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.1108260378241539</v>
+        <v>1.577349066734314</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.09479157626628876</v>
+        <v>-0.2573668956756592</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.1501078307628632</v>
+        <v>-1.842426657676697</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.08898839354515076</v>
+        <v>1.16489565372467</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.1241491809487343</v>
+        <v>0.3006386160850525</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.1326768547296524</v>
+        <v>-1.658921122550964</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.06870771199464798</v>
+        <v>0.9504472017288208</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.1024389266967773</v>
+        <v>0.4558730721473694</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.1303346753120422</v>
+        <v>-1.551522850990295</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.08186779916286469</v>
+        <v>1.09099280834198</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.1088856682181358</v>
+        <v>0.5861237645149231</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.1360358595848083</v>
+        <v>-1.756069183349609</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.1166543364524841</v>
+        <v>0.8597396016120911</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.09521973133087158</v>
+        <v>-1.181645393371582</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.08883462846279144</v>
+        <v>-2.607713222503662</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.1043037623167038</v>
+        <v>1.680429339408875</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.1171259582042694</v>
+        <v>-0.4667946696281433</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.1523131132125854</v>
+        <v>-1.808261036872864</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.006189197301864624</v>
+        <v>1.983880877494812</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.01680268347263336</v>
+        <v>1.019063472747803</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.1352746039628983</v>
+        <v>-2.73454737663269</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.0887608528137207</v>
+        <v>1.651124596595764</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.1211559846997261</v>
+        <v>-0.380824089050293</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.1307865828275681</v>
+        <v>-1.970079779624939</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.07598701864480972</v>
+        <v>1.216462969779968</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.08125153928995132</v>
+        <v>0.4894176721572876</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1446481645107269</v>
+        <v>-1.972042679786682</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.0471653938293457</v>
+        <v>1.540504693984985</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.05814522504806519</v>
+        <v>0.863945484161377</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.1358519196510315</v>
+        <v>-2.341742753982544</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.1278824955224991</v>
+        <v>0.8213298320770264</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.1586118638515472</v>
+        <v>0.1439370810985565</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.1188348829746246</v>
+        <v>-1.151967406272888</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.0762743204832077</v>
+        <v>0.9924038648605347</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.1055232286453247</v>
+        <v>0.4103192687034607</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1273157894611359</v>
+        <v>-1.541734576225281</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.05101848393678665</v>
+        <v>1.65303647518158</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.07320521026849747</v>
+        <v>0.1284212321043015</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.1261773705482483</v>
+        <v>-2.364879369735718</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.1186245232820511</v>
+        <v>1.074578762054443</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.1628327369689941</v>
+        <v>0.1738884896039963</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.1258866935968399</v>
+        <v>-1.410167694091797</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.05372204631567001</v>
+        <v>1.534058928489685</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.07608218491077423</v>
+        <v>0.4247954785823822</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.1342650949954987</v>
+        <v>-2.352228403091431</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.02693986892700195</v>
+        <v>1.855442643165588</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.05451067537069321</v>
+        <v>0.8884046673774719</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.1381573975086212</v>
+        <v>-2.688924789428711</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.07243429124355316</v>
+        <v>1.115705609321594</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.08713263273239136</v>
+        <v>-0.2182843387126923</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.1285485923290253</v>
+        <v>-1.49144971370697</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.0809723287820816</v>
+        <v>1.726022362709045</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.1177562177181244</v>
+        <v>-0.02066312730312347</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.1306455433368683</v>
+        <v>-2.489092826843262</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.03587372228503227</v>
+        <v>1.381955504417419</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.06000780314207077</v>
+        <v>0.5408080816268921</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.1422308683395386</v>
+        <v>-2.155742645263672</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.03583373129367828</v>
+        <v>1.821935772895813</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.05439966171979904</v>
+        <v>0.01060366630554199</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.1166938990354538</v>
+        <v>-2.535316705703735</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.05444319173693657</v>
+        <v>1.74005663394928</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.0758037343621254</v>
+        <v>0.3199474215507507</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.136877566576004</v>
+        <v>-2.529719591140747</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.09521526098251343</v>
+        <v>0.6816264390945435</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.1409730911254883</v>
+        <v>0.5460125207901001</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.132238358259201</v>
+        <v>-1.255934357643127</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.05777086690068245</v>
+        <v>2.595066547393799</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.07589486241340637</v>
+        <v>0.3011492788791656</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.1277731359004974</v>
+        <v>-3.370515584945679</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.06766827404499054</v>
+        <v>0.9706257581710815</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.09867697209119797</v>
+        <v>0.5744330883026123</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.1172818541526794</v>
+        <v>-1.628246903419495</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.09059478342533112</v>
+        <v>1.390216946601868</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.1025239005684853</v>
+        <v>0.1232707351446152</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.1387037336826324</v>
+        <v>-1.956027388572693</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.05629599094390869</v>
+        <v>1.641358137130737</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.07194354385137558</v>
+        <v>0.4103237390518188</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.1334690451622009</v>
+        <v>-2.38619065284729</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.02425338327884674</v>
+        <v>2.406132698059082</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.05173943936824799</v>
+        <v>0.4395617842674255</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.1208295673131943</v>
+        <v>-3.173442602157593</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.05052171275019646</v>
+        <v>1.023679614067078</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.08583693206310272</v>
+        <v>0.7017267346382141</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.1450600624084473</v>
+        <v>-1.758838295936584</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.07634823024272919</v>
+        <v>1.050884127616882</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.0990014374256134</v>
+        <v>0.5895144939422607</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.1251936852931976</v>
+        <v>-1.674135565757751</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.09673888236284256</v>
+        <v>0.775971531867981</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.1542365849018097</v>
+        <v>0.5172886252403259</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.130503922700882</v>
+        <v>-1.186162233352661</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.06401553004980087</v>
+        <v>1.947232604026794</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.06782305240631104</v>
+        <v>0.6328850984573364</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.1308669894933701</v>
+        <v>-2.698784112930298</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.08082379400730133</v>
+        <v>3.341529846191406</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.09928356856107712</v>
+        <v>-0.6620941162109375</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.1200185269117355</v>
+        <v>-4.471887588500977</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.02236320078372955</v>
+        <v>2.063462495803833</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.03085625171661377</v>
+        <v>0.8050743937492371</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.1258226335048676</v>
+        <v>-2.712123870849609</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.1343341767787933</v>
+        <v>0.7910903096199036</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.1386978030204773</v>
+        <v>0.07619473338127136</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.1109186932444572</v>
+        <v>-1.137196183204651</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.1248939782381058</v>
+        <v>1.229742527008057</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.1458470225334167</v>
+        <v>-0.2183975279331207</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.1352950930595398</v>
+        <v>-1.436250329017639</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.09503060579299927</v>
+        <v>1.643270969390869</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.1416967660188675</v>
+        <v>0.2462699711322784</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.1260479837656021</v>
+        <v>-2.365190744400024</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.09348990023136139</v>
+        <v>1.008958220481873</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.1179851591587067</v>
+        <v>0.4778202772140503</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.1215197071433067</v>
+        <v>-1.529945015907288</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.05520994588732719</v>
+        <v>1.968045353889465</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.08679694682359695</v>
+        <v>0.239435225725174</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.1288349479436874</v>
+        <v>-2.820264339447021</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.09155938029289246</v>
+        <v>1.414576888084412</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.1075850874185562</v>
+        <v>-0.1199643015861511</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.1443141400814056</v>
+        <v>-1.591474294662476</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.05583352968096733</v>
+        <v>1.915743708610535</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.08136416226625443</v>
+        <v>0.1165742576122284</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.1327816843986511</v>
+        <v>-2.674163579940796</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.05440619215369225</v>
+        <v>1.664375901222229</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.06747095286846161</v>
+        <v>0.8002166748046875</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.1313055455684662</v>
+        <v>-2.448201894760132</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.06800870597362518</v>
+        <v>1.036563277244568</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.09587709605693817</v>
+        <v>0.2463144361972809</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.1148999482393265</v>
+        <v>-1.425494074821472</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.1075215637683868</v>
+        <v>1.310572743415833</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.1464085876941681</v>
+        <v>-0.06313687562942505</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.1296137124300003</v>
+        <v>-1.587421178817749</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.121874138712883</v>
+        <v>1.497097492218018</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.1288220137357712</v>
+        <v>-0.3744785785675049</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.1564284265041351</v>
+        <v>-1.525341153144836</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.06433216482400894</v>
+        <v>2.18246865272522</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.09252015501260757</v>
+        <v>-0.7130568027496338</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.1256708800792694</v>
+        <v>-2.880414247512817</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.1031720340251923</v>
+        <v>1.188011527061462</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.1277013570070267</v>
+        <v>0.3633140325546265</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.1471375524997711</v>
+        <v>-1.734010100364685</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.1080713719129562</v>
+        <v>1.014734745025635</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.1437002569437027</v>
+        <v>0.3121131956577301</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.1369214057922363</v>
+        <v>-1.453409790992737</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.05845885723829269</v>
+        <v>1.495096802711487</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.06600058823823929</v>
+        <v>0.4670358300209045</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.1387790441513062</v>
+        <v>-2.253440141677856</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.08517744392156601</v>
+        <v>1.011226892471313</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.123616136610508</v>
+        <v>0.6907858848571777</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.1413636207580566</v>
+        <v>-1.733844637870789</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.04612799733877182</v>
+        <v>1.118078351020813</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.07097961008548737</v>
+        <v>0.4862739741802216</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.1338586509227753</v>
+        <v>-1.735862374305725</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.06470246613025665</v>
+        <v>1.367128610610962</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.0802559107542038</v>
+        <v>0.5905977487564087</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.1436268389225006</v>
+        <v>-2.176062345504761</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.06191910803318024</v>
+        <v>2.138025999069214</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.0912361741065979</v>
+        <v>0.3329448699951172</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.1302722990512848</v>
+        <v>-2.970354318618774</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.06508846580982208</v>
+        <v>1.481137871742249</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.07872024178504944</v>
+        <v>0.5522452592849731</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.1325296461582184</v>
+        <v>-2.201917171478271</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.09230682998895645</v>
+        <v>1.208959341049194</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.1215872094035149</v>
+        <v>0.1416821479797363</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.1376552581787109</v>
+        <v>-1.605631947517395</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.1216808259487152</v>
+        <v>0.7819568514823914</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.1672433316707611</v>
+        <v>0.4131414294242859</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.1192957907915115</v>
+        <v>-1.115522623062134</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.06880196928977966</v>
+        <v>1.220964550971985</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.08048205822706223</v>
+        <v>0.4471961259841919</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.1471858769655228</v>
+        <v>-1.846436858177185</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.1038924604654312</v>
+        <v>1.114058971405029</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.1212334409356117</v>
+        <v>0.5155514478683472</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.1384058594703674</v>
+        <v>-1.768039345741272</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.06012975051999092</v>
+        <v>1.436874151229858</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.06923127174377441</v>
+        <v>0.5384972095489502</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.1361913979053497</v>
+        <v>-2.171729564666748</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.01599404215812683</v>
+        <v>2.715448379516602</v>
       </c>
       <c r="C221" t="n">
-        <v>0.006914637982845306</v>
+        <v>0.9509205222129822</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.1203700453042984</v>
+        <v>-3.447723150253296</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.03867699950933456</v>
+        <v>2.697023391723633</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.06129094958305359</v>
+        <v>0.2170471847057343</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.1265457570552826</v>
+        <v>-3.49284839630127</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.07087843120098114</v>
+        <v>0.8535822629928589</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.1136700510978699</v>
+        <v>0.4685378670692444</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.1271019130945206</v>
+        <v>-1.441470742225647</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.08180674910545349</v>
+        <v>1.418420076370239</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.0929388701915741</v>
+        <v>0.05563753843307495</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.1320393532514572</v>
+        <v>-1.983672022819519</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.04901188611984253</v>
+        <v>1.078886747360229</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.07777996361255646</v>
+        <v>0.5943019390106201</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.1420195251703262</v>
+        <v>-1.7143235206604</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.04751469194889069</v>
+        <v>1.018486142158508</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.07262234389781952</v>
+        <v>0.3836378455162048</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.1304710507392883</v>
+        <v>-1.539883852005005</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.1048384606838226</v>
+        <v>0.8402514457702637</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.1526950597763062</v>
+        <v>0.5501512289047241</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.1380307376384735</v>
+        <v>-1.399720549583435</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.06260240823030472</v>
+        <v>1.487207174301147</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.08045132458209991</v>
+        <v>0.5960116386413574</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.1410519480705261</v>
+        <v>-2.268206357955933</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.05875449627637863</v>
+        <v>1.296494960784912</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.09570255130529404</v>
+        <v>0.6476556658744812</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.1474742591381073</v>
+        <v>-2.13915228843689</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.05889881029725075</v>
+        <v>0.9732969999313354</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.08868152648210526</v>
+        <v>0.3311251997947693</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.1187991946935654</v>
+        <v>-1.444507956504822</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.06999306380748749</v>
+        <v>1.190636038780212</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.09560839086771011</v>
+        <v>0.3296476900577545</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.133163183927536</v>
+        <v>-1.710100293159485</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.08037139475345612</v>
+        <v>1.3095543384552</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.08952681720256805</v>
+        <v>0.2130097448825836</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.1442889273166656</v>
+        <v>-1.748564124107361</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.120162270963192</v>
+        <v>0.8317668437957764</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.1508451700210571</v>
+        <v>-0.02139058709144592</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.1119389086961746</v>
+        <v>-1.075315594673157</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.09084775298833847</v>
+        <v>0.8709827661514282</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.1403035670518875</v>
+        <v>0.4923020899295807</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.1314530223608017</v>
+        <v>-1.3731290102005</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.07287485897541046</v>
+        <v>2.271447658538818</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.09758325666189194</v>
+        <v>0.1878058612346649</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.1293989419937134</v>
+        <v>-3.054330587387085</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.07640825212001801</v>
+        <v>2.096142530441284</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.09660516679286957</v>
+        <v>0.1456305384635925</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.1338731050491333</v>
+        <v>-2.855058431625366</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.1507366150617599</v>
+        <v>0.8906098604202271</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.1767814755439758</v>
+        <v>-0.09863623976707458</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.1014156863093376</v>
+        <v>-1.082240104675293</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.1122935935854912</v>
+        <v>0.9506416916847229</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.1328134983778</v>
+        <v>0.1944365054368973</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.1274681389331818</v>
+        <v>-1.32167112827301</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.06474394351243973</v>
+        <v>2.354749202728271</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.09943529218435287</v>
+        <v>-0.6405695080757141</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.1203275769948959</v>
+        <v>-3.181865692138672</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.06128616631031036</v>
+        <v>1.216540932655334</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.07033208757638931</v>
+        <v>0.4608058929443359</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.1464442014694214</v>
+        <v>-1.850172877311707</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.1157517805695534</v>
+        <v>0.7291545867919922</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.1589857637882233</v>
+        <v>0.3327838182449341</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.1247384026646614</v>
+        <v>-1.068313717842102</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.09675094485282898</v>
+        <v>1.236545920372009</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.1168933659791946</v>
+        <v>0.2305621951818466</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.1429513990879059</v>
+        <v>-1.700125098228455</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.06740202009677887</v>
+        <v>1.157108426094055</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.08399949967861176</v>
+        <v>0.6142971515655518</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.1457615345716476</v>
+        <v>-1.889061331748962</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.06071925908327103</v>
+        <v>1.222806811332703</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.0739169716835022</v>
+        <v>0.6928938031196594</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.1474689841270447</v>
+        <v>-2.012735605239868</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.1423084288835526</v>
+        <v>1.040824174880981</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.1761158108711243</v>
+        <v>-0.09686753153800964</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.1128014177083969</v>
+        <v>-1.225810408592224</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.0935942679643631</v>
+        <v>1.104692578315735</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.1261546611785889</v>
+        <v>0.4487584829330444</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.134255513548851</v>
+        <v>-1.682006239891052</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.1010105162858963</v>
+        <v>1.120973467826843</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.1343631893396378</v>
+        <v>0.4368684887886047</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.1347568035125732</v>
+        <v>-1.707059741020203</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.1231372430920601</v>
+        <v>0.6823168992996216</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.1726227998733521</v>
+        <v>0.3059869110584259</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.1144570857286453</v>
+        <v>-0.982232928276062</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.1054634898900986</v>
+        <v>0.9477454423904419</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.08656025677919388</v>
+        <v>-0.6637644171714783</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.07755953073501587</v>
+        <v>-1.538864016532898</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.06243612617254257</v>
+        <v>1.016165018081665</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.08427219092845917</v>
+        <v>0.472882091999054</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.1211573928594589</v>
+        <v>-1.594569683074951</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.04195891320705414</v>
+        <v>1.014678359031677</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.06269188970327377</v>
+        <v>0.4360249042510986</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.1306251734495163</v>
+        <v>-1.668111681938171</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.06601086258888245</v>
+        <v>1.491797089576721</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.07700056582689285</v>
+        <v>0.8203224539756775</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.1430497467517853</v>
+        <v>-2.321833848953247</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.1368629932403564</v>
+        <v>0.9904239177703857</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.1802646517753601</v>
+        <v>0.4360338449478149</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.1328670680522919</v>
+        <v>-1.514052271842957</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.00792219489812851</v>
+        <v>2.407487392425537</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.02366761863231659</v>
+        <v>0.9113438129425049</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.1252619028091431</v>
+        <v>-3.202682256698608</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.0117514356970787</v>
+        <v>2.261837005615234</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.01364030689001083</v>
+        <v>0.9565211534500122</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.1317054778337479</v>
+        <v>-3.040512084960938</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.08147513866424561</v>
+        <v>1.451243042945862</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.1013040617108345</v>
+        <v>0.09677103906869888</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.1362936645746231</v>
+        <v>-2.091816902160645</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.0713103786110878</v>
+        <v>1.06633460521698</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.09557511657476425</v>
+        <v>0.7480927705764771</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.1431507170200348</v>
+        <v>-1.831395268440247</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.02582117170095444</v>
+        <v>1.767339825630188</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.03491630405187607</v>
+        <v>0.9205474257469177</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.1412115395069122</v>
+        <v>-2.55016827583313</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.07166946679353714</v>
+        <v>1.084937930107117</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.09011846780776978</v>
+        <v>0.687147855758667</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.1330720186233521</v>
+        <v>-1.821822762489319</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.1021686121821404</v>
+        <v>0.9634311199188232</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.1442128121852875</v>
+        <v>0.09161962568759918</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.1123863607645035</v>
+        <v>-1.218964457511902</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.05288514494895935</v>
+        <v>1.107932090759277</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.07707599550485611</v>
+        <v>0.5717154145240784</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.1420379877090454</v>
+        <v>-1.783447265625</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.07125657796859741</v>
+        <v>1.364572644233704</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.08462432026863098</v>
+        <v>0.5830727219581604</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.1450990587472916</v>
+        <v>-2.18169903755188</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.0973057746887207</v>
+        <v>1.687850832939148</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.1314625293016434</v>
+        <v>-0.3799259066581726</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.1341694295406342</v>
+        <v>-1.905612349510193</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.07564513385295868</v>
+        <v>1.736776947975159</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.0980130210518837</v>
+        <v>0.367790162563324</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.1324980109930038</v>
+        <v>-2.498327732086182</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.1053717434406281</v>
+        <v>1.717997908592224</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.1157541200518608</v>
+        <v>-0.4249879121780396</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.1398176252841949</v>
+        <v>-2.297591209411621</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.08400379121303558</v>
+        <v>2.359857797622681</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.09600703418254852</v>
+        <v>0.3649956583976746</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.1373195648193359</v>
+        <v>-3.09696364402771</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.09625157713890076</v>
+        <v>1.470376372337341</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.1012614443898201</v>
+        <v>-0.1931823492050171</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.1460445672273636</v>
+        <v>-1.576525807380676</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.05333256721496582</v>
+        <v>1.212392807006836</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.06537822633981705</v>
+        <v>0.6100088357925415</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.1468385457992554</v>
+        <v>-1.970682263374329</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.08187507838010788</v>
+        <v>0.9187619686126709</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.1230733022093773</v>
+        <v>0.384033590555191</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.1223646253347397</v>
+        <v>-1.28775680065155</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.04897061735391617</v>
+        <v>2.961353778839111</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.09284517914056778</v>
+        <v>-0.4294846653938293</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.1187630742788315</v>
+        <v>-3.744008779525757</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.0882439911365509</v>
+        <v>4.569732666015625</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.1290262490510941</v>
+        <v>-2.70654821395874</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.1056426167488098</v>
+        <v>-5.164294242858887</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.08113512396812439</v>
+        <v>3.031819105148315</v>
       </c>
       <c r="C272" t="n">
-        <v>-0.08972764015197754</v>
+        <v>0.155611664056778</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.1326446682214737</v>
+        <v>-3.862495183944702</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.07274234294891357</v>
+        <v>1.370241761207581</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.1002440825104713</v>
+        <v>0.2843632996082306</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.1281797736883163</v>
+        <v>-2.109532594680786</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.06506001949310303</v>
+        <v>1.89582622051239</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.07717243582010269</v>
+        <v>0.3928110301494598</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.1316622197628021</v>
+        <v>-2.638350963592529</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.07391151040792465</v>
+        <v>1.853141665458679</v>
       </c>
       <c r="C275" t="n">
-        <v>-0.09417477995157242</v>
+        <v>0.00374150276184082</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.1383993625640869</v>
+        <v>-2.636374235153198</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.1426050215959549</v>
+        <v>0.9095984101295471</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.1647879332304001</v>
+        <v>0.1041373535990715</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.1123864501714706</v>
+        <v>-1.248828530311584</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.1003711372613907</v>
+        <v>1.26293957233429</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.1077238917350769</v>
+        <v>0.2216257452964783</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.1539950370788574</v>
+        <v>-1.744889140129089</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.117362841963768</v>
+        <v>1.293465971946716</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.1539129316806793</v>
+        <v>-0.1123418211936951</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.1328268945217133</v>
+        <v>-1.443390369415283</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.03900069743394852</v>
+        <v>2.242472648620605</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.07530275732278824</v>
+        <v>0.08777657151222229</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.1217411011457443</v>
+        <v>-3.044414758682251</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.008853398263454437</v>
+        <v>1.814969539642334</v>
       </c>
       <c r="C280" t="n">
-        <v>-0.02985059469938278</v>
+        <v>0.9093065857887268</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.1354088187217712</v>
+        <v>-2.595801830291748</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.08852627873420715</v>
+        <v>1.738487601280212</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.08756003528833389</v>
+        <v>-0.3399074673652649</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.147489070892334</v>
+        <v>-2.514241695404053</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.1173132061958313</v>
+        <v>1.884814381599426</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.1405803263187408</v>
+        <v>-0.2703158259391785</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.1280603110790253</v>
+        <v>-2.833345174789429</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.09006073325872421</v>
+        <v>1.652297139167786</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.1208372488617897</v>
+        <v>-0.3196622133255005</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.1393303573131561</v>
+        <v>-2.099080801010132</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.1152659356594086</v>
+        <v>1.28326404094696</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.1453717648983002</v>
+        <v>-0.3206489086151123</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.1229304820299149</v>
+        <v>-1.295962333679199</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.06629040092229843</v>
+        <v>1.102996826171875</v>
       </c>
       <c r="C285" t="n">
-        <v>-0.09342131763696671</v>
+        <v>0.594498872756958</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.1428994983434677</v>
+        <v>-1.796176314353943</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.09807083010673523</v>
+        <v>1.502351403236389</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.07843305915594101</v>
+        <v>0.03394919633865356</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.1535629630088806</v>
+        <v>-2.102864503860474</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.06459139287471771</v>
+        <v>1.554163575172424</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.080238938331604</v>
+        <v>0.6788378953933716</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.1397808790206909</v>
+        <v>-2.33992600440979</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.1180063560605049</v>
+        <v>1.479032397270203</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.1172492504119873</v>
+        <v>-0.2282658815383911</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.1577271074056625</v>
+        <v>-1.716429710388184</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.1103431880474091</v>
+        <v>1.422333598136902</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.08707548677921295</v>
+        <v>-0.1066061854362488</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.1642235517501831</v>
+        <v>-1.646680235862732</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.06705605983734131</v>
+        <v>1.44709050655365</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.1041627377271652</v>
+        <v>0.5628581047058105</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.137125626206398</v>
+        <v>-2.232347249984741</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.06445901840925217</v>
+        <v>1.265919327735901</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.0948861762881279</v>
+        <v>0.6212599277496338</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.1398189067840576</v>
+        <v>-2.039404392242432</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.01420984417200089</v>
+        <v>1.899687886238098</v>
       </c>
       <c r="C292" t="n">
-        <v>-0.03132153302431107</v>
+        <v>0.554753839969635</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.1301645189523697</v>
+        <v>-2.637526512145996</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.08699950575828552</v>
+        <v>1.080548167228699</v>
       </c>
       <c r="C293" t="n">
-        <v>-0.1211173385381699</v>
+        <v>0.5594906806945801</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.1348453909158707</v>
+        <v>-1.70659863948822</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.06122767925262451</v>
+        <v>1.086292386054993</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.07672876119613647</v>
+        <v>0.5811492204666138</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.1454607844352722</v>
+        <v>-1.79447329044342</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.0635814368724823</v>
+        <v>0.8756883144378662</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.09129083156585693</v>
+        <v>0.4031908512115479</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.1122708842158318</v>
+        <v>-1.386632084846497</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.1184746250510216</v>
+        <v>0.8049326539039612</v>
       </c>
       <c r="C296" t="n">
-        <v>-0.1662484705448151</v>
+        <v>0.3714800477027893</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.1207408010959625</v>
+        <v>-1.192475914955139</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.07508203387260437</v>
+        <v>2.29728889465332</v>
       </c>
       <c r="C297" t="n">
-        <v>-0.06996863335371017</v>
+        <v>0.4453107714653015</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.1414392590522766</v>
+        <v>-3.080746412277222</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.04307463765144348</v>
+        <v>1.517089486122131</v>
       </c>
       <c r="C298" t="n">
-        <v>-0.05799626559019089</v>
+        <v>0.2413561791181564</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.1315951943397522</v>
+        <v>-2.173758029937744</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.08626044541597366</v>
+        <v>1.69384491443634</v>
       </c>
       <c r="C299" t="n">
-        <v>-0.1241163164377213</v>
+        <v>0.244409054517746</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.1266510635614395</v>
+        <v>-2.58755898475647</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.08493915945291519</v>
+        <v>2.310753345489502</v>
       </c>
       <c r="C300" t="n">
-        <v>-0.1126258373260498</v>
+        <v>-0.0593792200088501</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.1285607665777206</v>
+        <v>-3.139836549758911</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.08738279342651367</v>
+        <v>0.9133417010307312</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.1379881352186203</v>
+        <v>0.5022274851799011</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.1281057149171829</v>
+        <v>-1.378940463066101</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.04112515226006508</v>
+        <v>1.603145003318787</v>
       </c>
       <c r="C302" t="n">
-        <v>-0.05387239158153534</v>
+        <v>0.6793806552886963</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.1402338743209839</v>
+        <v>-2.349216222763062</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.1336705237627029</v>
+        <v>1.062339663505554</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.1760089695453644</v>
+        <v>0.2691169083118439</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.127398207783699</v>
+        <v>-1.488540768623352</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.02984357625246048</v>
+        <v>1.519634127616882</v>
       </c>
       <c r="C304" t="n">
-        <v>-0.04652780294418335</v>
+        <v>0.9423375725746155</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.1432933211326599</v>
+        <v>-2.337491273880005</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.1224459707736969</v>
+        <v>1.949339747428894</v>
       </c>
       <c r="C305" t="n">
-        <v>-0.155317947268486</v>
+        <v>-0.3109579086303711</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.1328005790710449</v>
+        <v>-2.929611682891846</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.1100461408495903</v>
+        <v>1.298851013183594</v>
       </c>
       <c r="C306" t="n">
-        <v>-0.1460932791233063</v>
+        <v>-0.02903661131858826</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.1328096091747284</v>
+        <v>-1.55298113822937</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.0626455694437027</v>
+        <v>1.508691906929016</v>
       </c>
       <c r="C307" t="n">
-        <v>-0.0715753361582756</v>
+        <v>0.6309002637863159</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.1377275586128235</v>
+        <v>-2.270687103271484</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.064848393201828</v>
+        <v>1.243203520774841</v>
       </c>
       <c r="C308" t="n">
-        <v>-0.06694544851779938</v>
+        <v>0.5188648700714111</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.1452476233243942</v>
+        <v>-2.017450571060181</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.1586167514324188</v>
+        <v>0.6437472105026245</v>
       </c>
       <c r="C309" t="n">
-        <v>-0.1801395267248154</v>
+        <v>-0.06310829520225525</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.09873966872692108</v>
+        <v>-0.8342962265014648</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.09510652720928192</v>
+        <v>1.312540173530579</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.1054999828338623</v>
+        <v>0.1594492495059967</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.1480150818824768</v>
+        <v>-1.739655017852783</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.1199091896414757</v>
+        <v>1.026740550994873</v>
       </c>
       <c r="C311" t="n">
-        <v>-0.1659682840108871</v>
+        <v>0.252216100692749</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.1259338557720184</v>
+        <v>-1.403834462165833</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.02071240544319153</v>
+        <v>2.04210352897644</v>
       </c>
       <c r="C312" t="n">
-        <v>-0.02945559471845627</v>
+        <v>0.8600433468818665</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.1366661638021469</v>
+        <v>-2.81983470916748</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.0754881352186203</v>
+        <v>2.149555921554565</v>
       </c>
       <c r="C313" t="n">
-        <v>-0.1020846888422966</v>
+        <v>0.3508787155151367</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.1329535841941833</v>
+        <v>-3.003026723861694</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.03669583052396774</v>
+        <v>1.399086117744446</v>
       </c>
       <c r="C314" t="n">
-        <v>-0.05331558734178543</v>
+        <v>0.8956511616706848</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.1456163376569748</v>
+        <v>-2.196527719497681</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.06671035289764404</v>
+        <v>1.203766226768494</v>
       </c>
       <c r="C315" t="n">
-        <v>-0.07378716766834259</v>
+        <v>0.5850990414619446</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.1462352871894836</v>
+        <v>-1.970259308815002</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.01799041777849197</v>
+        <v>1.772416234016418</v>
       </c>
       <c r="C316" t="n">
-        <v>-0.03145348280668259</v>
+        <v>0.9540821313858032</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.1385938674211502</v>
+        <v>-2.536568880081177</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.05786741152405739</v>
+        <v>2.377815723419189</v>
       </c>
       <c r="C317" t="n">
-        <v>-0.08230163156986237</v>
+        <v>0.08402693271636963</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.1259903609752655</v>
+        <v>-3.135798931121826</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.1014055013656616</v>
+        <v>0.8797061443328857</v>
       </c>
       <c r="C318" t="n">
-        <v>-0.1553006172180176</v>
+        <v>0.4885223507881165</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.1227472722530365</v>
+        <v>-1.270114779472351</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.07286110520362854</v>
+        <v>1.709340333938599</v>
       </c>
       <c r="C319" t="n">
-        <v>-0.09096042066812515</v>
+        <v>0.1293109357357025</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.1413643658161163</v>
+        <v>-2.501564264297485</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.04829208552837372</v>
+        <v>2.145108461380005</v>
       </c>
       <c r="C320" t="n">
-        <v>-0.06316599249839783</v>
+        <v>0.6486654281616211</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.1282914727926254</v>
+        <v>-2.945761442184448</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.09598198533058167</v>
+        <v>1.742041707038879</v>
       </c>
       <c r="C321" t="n">
-        <v>-0.1270539164543152</v>
+        <v>-0.05663561820983887</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.1427716463804245</v>
+        <v>-2.245519876480103</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.1070165634155273</v>
+        <v>1.824817776679993</v>
       </c>
       <c r="C322" t="n">
-        <v>-0.131755918264389</v>
+        <v>-0.2002994120121002</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.1295920461416245</v>
+        <v>-2.552392482757568</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.1264815628528595</v>
+        <v>0.8742777109146118</v>
       </c>
       <c r="C323" t="n">
-        <v>-0.1793914884328842</v>
+        <v>0.4783371984958649</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.1242251545190811</v>
+        <v>-1.329026460647583</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.08503811806440353</v>
+        <v>1.682842373847961</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.112541139125824</v>
+        <v>0.05186626315116882</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.1343708336353302</v>
+        <v>-2.233252286911011</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.1122228354215622</v>
+        <v>1.068593263626099</v>
       </c>
       <c r="C325" t="n">
-        <v>-0.1466812640428543</v>
+        <v>0.2512962818145752</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.1331813484430313</v>
+        <v>-1.517340660095215</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.09622090309858322</v>
+        <v>1.349685549736023</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.1182056441903114</v>
+        <v>0.4112759530544281</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.1410862803459167</v>
+        <v>-2.090485811233521</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.1124827414751053</v>
+        <v>1.343974232673645</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.1345705091953278</v>
+        <v>-0.4710763096809387</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.1385416090488434</v>
+        <v>-1.422419786453247</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.1129785776138306</v>
+        <v>0.373285710811615</v>
       </c>
       <c r="C328" t="n">
-        <v>-0.1664492189884186</v>
+        <v>0.421633780002594</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.1167262345552444</v>
+        <v>-0.685469388961792</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.1013661921024323</v>
+        <v>1.904780030250549</v>
       </c>
       <c r="C329" t="n">
-        <v>-0.1280329376459122</v>
+        <v>-0.3906688690185547</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.1271235644817352</v>
+        <v>-2.51676344871521</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.09554612636566162</v>
+        <v>1.008857131004333</v>
       </c>
       <c r="C330" t="n">
-        <v>-0.1261703372001648</v>
+        <v>0.5486311316490173</v>
       </c>
       <c r="D330" t="n">
-        <v>-0.1220669597387314</v>
+        <v>-1.655926942825317</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.08677142113447189</v>
+        <v>1.953669548034668</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.1199359148740768</v>
+        <v>-0.05863577127456665</v>
       </c>
       <c r="D331" t="n">
-        <v>-0.1297744363546371</v>
+        <v>-2.578842163085938</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.03729677200317383</v>
+        <v>1.556666731834412</v>
       </c>
       <c r="C332" t="n">
-        <v>-0.06622177362442017</v>
+        <v>0.5677974820137024</v>
       </c>
       <c r="D332" t="n">
-        <v>-0.1454436480998993</v>
+        <v>-2.411772489547729</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.05346076563000679</v>
+        <v>1.108364462852478</v>
       </c>
       <c r="C333" t="n">
-        <v>-0.07505806535482407</v>
+        <v>0.6125569343566895</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.1390873789787292</v>
+        <v>-1.779241919517517</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.08363876491785049</v>
+        <v>1.191364049911499</v>
       </c>
       <c r="C334" t="n">
-        <v>-0.0824299156665802</v>
+        <v>0.4538252353668213</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.1522801220417023</v>
+        <v>-1.8501797914505</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.08108625560998917</v>
+        <v>1.405514121055603</v>
       </c>
       <c r="C335" t="n">
-        <v>-0.08699776977300644</v>
+        <v>0.1999649703502655</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.1349572539329529</v>
+        <v>-2.129271507263184</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.08073309808969498</v>
+        <v>1.196012139320374</v>
       </c>
       <c r="C336" t="n">
-        <v>-0.1073871254920959</v>
+        <v>-0.5369522571563721</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.09682630002498627</v>
+        <v>-1.373890280723572</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.1349264830350876</v>
+        <v>1.020542860031128</v>
       </c>
       <c r="C337" t="n">
-        <v>-0.1819819957017899</v>
+        <v>0.2419353723526001</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.1259723603725433</v>
+        <v>-1.390805840492249</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.02790557593107224</v>
+        <v>1.602028131484985</v>
       </c>
       <c r="C338" t="n">
-        <v>-0.04698512703180313</v>
+        <v>0.6463913321495056</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.1402664929628372</v>
+        <v>-2.380555629730225</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.07903856039047241</v>
+        <v>1.509048104286194</v>
       </c>
       <c r="C339" t="n">
-        <v>-0.1078273355960846</v>
+        <v>0.02195157110691071</v>
       </c>
       <c r="D339" t="n">
-        <v>-0.1285829991102219</v>
+        <v>-2.06499457359314</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.04891592636704445</v>
+        <v>0.9316228628158569</v>
       </c>
       <c r="C340" t="n">
-        <v>-0.0737345814704895</v>
+        <v>0.2750939428806305</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.1205291599035263</v>
+        <v>-1.327100157737732</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.03610969334840775</v>
+        <v>1.679380774497986</v>
       </c>
       <c r="C341" t="n">
-        <v>-0.06850028038024902</v>
+        <v>0.2912639081478119</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.124531090259552</v>
+        <v>-2.410474061965942</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.03374636918306351</v>
+        <v>2.589183807373047</v>
       </c>
       <c r="C342" t="n">
-        <v>-0.05627010017633438</v>
+        <v>0.2156709730625153</v>
       </c>
       <c r="D342" t="n">
-        <v>-0.1216722503304482</v>
+        <v>-3.357986688613892</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.1422888338565826</v>
+        <v>1.070929050445557</v>
       </c>
       <c r="C343" t="n">
-        <v>-0.1736574172973633</v>
+        <v>-0.1917935609817505</v>
       </c>
       <c r="D343" t="n">
-        <v>-0.1205398142337799</v>
+        <v>-1.18494725227356</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.09079123288393021</v>
+        <v>1.329277276992798</v>
       </c>
       <c r="C344" t="n">
-        <v>-0.1096032708883286</v>
+        <v>0.04917429387569427</v>
       </c>
       <c r="D344" t="n">
-        <v>-0.1405366063117981</v>
+        <v>-1.636611580848694</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.0758039802312851</v>
+        <v>3.024293422698975</v>
       </c>
       <c r="C345" t="n">
-        <v>-0.1069686189293861</v>
+        <v>-1.366621494293213</v>
       </c>
       <c r="D345" t="n">
-        <v>-0.143240362405777</v>
+        <v>-3.672191858291626</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.1198916062712669</v>
+        <v>0.6620520353317261</v>
       </c>
       <c r="C346" t="n">
-        <v>-0.1255023777484894</v>
+        <v>-0.095685213804245</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.07850240170955658</v>
+        <v>-1.120290517807007</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.1073324754834175</v>
+        <v>1.513290166854858</v>
       </c>
       <c r="C347" t="n">
-        <v>-0.1291430443525314</v>
+        <v>-0.2442870140075684</v>
       </c>
       <c r="D347" t="n">
-        <v>-0.1509956121444702</v>
+        <v>-1.787649750709534</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.07886152714490891</v>
+        <v>1.529066801071167</v>
       </c>
       <c r="C348" t="n">
-        <v>-0.1024168431758881</v>
+        <v>0.1793120503425598</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.1334953606128693</v>
+        <v>-2.120521783828735</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.06027764827013016</v>
+        <v>1.307575225830078</v>
       </c>
       <c r="C349" t="n">
-        <v>-0.07338243722915649</v>
+        <v>0.6223359704017639</v>
       </c>
       <c r="D349" t="n">
-        <v>-0.1399518400430679</v>
+        <v>-2.036037683486938</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.07311053574085236</v>
+        <v>1.048362731933594</v>
       </c>
       <c r="C350" t="n">
-        <v>-0.1011975780129433</v>
+        <v>0.7611989974975586</v>
       </c>
       <c r="D350" t="n">
-        <v>-0.143092542886734</v>
+        <v>-1.832968354225159</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.08369830995798111</v>
+        <v>0.9875960350036621</v>
       </c>
       <c r="C351" t="n">
-        <v>-0.1290396153926849</v>
+        <v>0.6176111102104187</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.1329561173915863</v>
+        <v>-1.644622445106506</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.115972489118576</v>
+        <v>0.7033337354660034</v>
       </c>
       <c r="C352" t="n">
-        <v>-0.163628414273262</v>
+        <v>0.3152672052383423</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.112549215555191</v>
+        <v>-0.9346904754638672</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.07256605476140976</v>
+        <v>1.333266615867615</v>
       </c>
       <c r="C353" t="n">
-        <v>-0.08998440206050873</v>
+        <v>0.6173964738845825</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.1460540890693665</v>
+        <v>-2.143980741500854</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.08481099456548691</v>
+        <v>1.478128790855408</v>
       </c>
       <c r="C354" t="n">
-        <v>-0.1034635975956917</v>
+        <v>0.04173183441162109</v>
       </c>
       <c r="D354" t="n">
-        <v>-0.1325667202472687</v>
+        <v>-1.95478880405426</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.08074381947517395</v>
+        <v>2.312564373016357</v>
       </c>
       <c r="C355" t="n">
-        <v>-0.09326072782278061</v>
+        <v>-0.2733674645423889</v>
       </c>
       <c r="D355" t="n">
-        <v>-0.1429038941860199</v>
+        <v>-3.086876630783081</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.07886548340320587</v>
+        <v>1.732549071311951</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.1054703742265701</v>
+        <v>-0.2740415036678314</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.1289846152067184</v>
+        <v>-2.289762258529663</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.1484260857105255</v>
+        <v>0.6794929504394531</v>
       </c>
       <c r="C357" t="n">
-        <v>-0.1772840172052383</v>
+        <v>0.04489223659038544</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.1052291169762611</v>
+        <v>-0.6169586181640625</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.03415273874998093</v>
+        <v>1.5268634557724</v>
       </c>
       <c r="C358" t="n">
-        <v>-0.05849918723106384</v>
+        <v>0.7902315258979797</v>
       </c>
       <c r="D358" t="n">
-        <v>-0.1487066149711609</v>
+        <v>-2.378830432891846</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.03126764297485352</v>
+        <v>1.899625182151794</v>
       </c>
       <c r="C359" t="n">
-        <v>-0.06607826799154282</v>
+        <v>0.2661563158035278</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.1275671124458313</v>
+        <v>-2.728783130645752</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.1002205908298492</v>
+        <v>1.203341126441956</v>
       </c>
       <c r="C360" t="n">
-        <v>-0.1299089044332504</v>
+        <v>0.2625951170921326</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.1369116604328156</v>
+        <v>-1.666987180709839</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>0.003212936222553253</v>
+        <v>2.037899017333984</v>
       </c>
       <c r="C361" t="n">
-        <v>-0.01037272810935974</v>
+        <v>0.8939732909202576</v>
       </c>
       <c r="D361" t="n">
-        <v>-0.1346060186624527</v>
+        <v>-2.757452249526978</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.1500631868839264</v>
+        <v>0.6668516397476196</v>
       </c>
       <c r="C362" t="n">
-        <v>-0.1652387231588364</v>
+        <v>0.1095889210700989</v>
       </c>
       <c r="D362" t="n">
-        <v>-0.09733854234218597</v>
+        <v>-0.9869527816772461</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.06810460239648819</v>
+        <v>1.475876092910767</v>
       </c>
       <c r="C363" t="n">
-        <v>-0.08968518674373627</v>
+        <v>0.2271092087030411</v>
       </c>
       <c r="D363" t="n">
-        <v>-0.124906986951828</v>
+        <v>-2.182759284973145</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.007729135453701019</v>
+        <v>2.991714477539062</v>
       </c>
       <c r="C364" t="n">
-        <v>-0.008515022695064545</v>
+        <v>0.6476243734359741</v>
       </c>
       <c r="D364" t="n">
-        <v>-0.1228864714503288</v>
+        <v>-3.709744453430176</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.1191699206829071</v>
+        <v>1.850602984428406</v>
       </c>
       <c r="C365" t="n">
-        <v>-0.1630803048610687</v>
+        <v>-0.08244496583938599</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.127522200345993</v>
+        <v>-2.464023351669312</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.08948467671871185</v>
+        <v>0.9490103721618652</v>
       </c>
       <c r="C366" t="n">
-        <v>-0.1251914501190186</v>
+        <v>0.2021416425704956</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.1105358675122261</v>
+        <v>-1.293040156364441</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.07960417866706848</v>
+        <v>2.005668163299561</v>
       </c>
       <c r="C367" t="n">
-        <v>-0.09490446001291275</v>
+        <v>0.4025330245494843</v>
       </c>
       <c r="D367" t="n">
-        <v>-0.1361034065485001</v>
+        <v>-2.786314725875854</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.06460584700107574</v>
+        <v>1.166214108467102</v>
       </c>
       <c r="C368" t="n">
-        <v>-0.07229217141866684</v>
+        <v>0.6280077695846558</v>
       </c>
       <c r="D368" t="n">
-        <v>-0.1496414542198181</v>
+        <v>-1.915680289268494</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.05022219568490982</v>
+        <v>1.564329266548157</v>
       </c>
       <c r="C369" t="n">
-        <v>-0.0741288959980011</v>
+        <v>0.3745407462120056</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.1378803253173828</v>
+        <v>-2.411908388137817</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.09758593142032623</v>
+        <v>1.49087381362915</v>
       </c>
       <c r="C370" t="n">
-        <v>-0.1078427210450172</v>
+        <v>0.3893257975578308</v>
       </c>
       <c r="D370" t="n">
-        <v>-0.1472742855548859</v>
+        <v>-2.294479846954346</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.08038681745529175</v>
+        <v>1.219642519950867</v>
       </c>
       <c r="C371" t="n">
-        <v>-0.09859815239906311</v>
+        <v>0.1596673130989075</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.1434304416179657</v>
+        <v>-1.637179374694824</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.04939357191324234</v>
+        <v>1.59208881855011</v>
       </c>
       <c r="C372" t="n">
-        <v>-0.07507218420505524</v>
+        <v>0.1321150362491608</v>
       </c>
       <c r="D372" t="n">
-        <v>-0.1274915039539337</v>
+        <v>-2.237772941589355</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.07626776397228241</v>
+        <v>1.552972674369812</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.0856836810708046</v>
+        <v>0.01539629697799683</v>
       </c>
       <c r="D373" t="n">
-        <v>-0.1366125792264938</v>
+        <v>-2.259631156921387</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.08132244646549225</v>
+        <v>1.680248141288757</v>
       </c>
       <c r="C374" t="n">
-        <v>-0.1092310398817062</v>
+        <v>0.2236402928829193</v>
       </c>
       <c r="D374" t="n">
-        <v>-0.1419045180082321</v>
+        <v>-2.48577094078064</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.08305954188108444</v>
+        <v>1.084018588066101</v>
       </c>
       <c r="C375" t="n">
-        <v>-0.1172366216778755</v>
+        <v>0.5730655193328857</v>
       </c>
       <c r="D375" t="n">
-        <v>-0.1341247707605362</v>
+        <v>-1.728667497634888</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.09358254075050354</v>
+        <v>1.157150626182556</v>
       </c>
       <c r="C376" t="n">
-        <v>-0.1276825368404388</v>
+        <v>0.01462119817733765</v>
       </c>
       <c r="D376" t="n">
-        <v>-0.1189705431461334</v>
+        <v>-1.452831983566284</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.07822011411190033</v>
+        <v>2.006450414657593</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.1124410256743431</v>
+        <v>-0.1745994687080383</v>
       </c>
       <c r="D377" t="n">
-        <v>-0.1223735883831978</v>
+        <v>-2.77371072769165</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.05392811447381973</v>
+        <v>1.563315153121948</v>
       </c>
       <c r="C378" t="n">
-        <v>-0.07795125246047974</v>
+        <v>0.2980611622333527</v>
       </c>
       <c r="D378" t="n">
-        <v>-0.1331705451011658</v>
+        <v>-2.322658777236938</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.04717230796813965</v>
+        <v>1.971786141395569</v>
       </c>
       <c r="C379" t="n">
-        <v>-0.07147625088691711</v>
+        <v>0.1721144765615463</v>
       </c>
       <c r="D379" t="n">
-        <v>-0.1321987360715866</v>
+        <v>-2.746512174606323</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.05996841192245483</v>
+        <v>1.089437365531921</v>
       </c>
       <c r="C380" t="n">
-        <v>-0.07966797798871994</v>
+        <v>0.6209959983825684</v>
       </c>
       <c r="D380" t="n">
-        <v>-0.1360000520944595</v>
+        <v>-1.805276274681091</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.05466959252953529</v>
+        <v>1.12056028842926</v>
       </c>
       <c r="C381" t="n">
-        <v>-0.07713249325752258</v>
+        <v>0.5681253671646118</v>
       </c>
       <c r="D381" t="n">
-        <v>-0.1420974731445312</v>
+        <v>-1.826293706893921</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.0597541332244873</v>
+        <v>2.141245126724243</v>
       </c>
       <c r="C382" t="n">
-        <v>-0.0927186906337738</v>
+        <v>-1.119977474212646</v>
       </c>
       <c r="D382" t="n">
-        <v>-0.1182866841554642</v>
+        <v>-2.742224931716919</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.09053628146648407</v>
+        <v>1.556912064552307</v>
       </c>
       <c r="C383" t="n">
-        <v>-0.09107197821140289</v>
+        <v>0.1786348521709442</v>
       </c>
       <c r="D383" t="n">
-        <v>-0.1419874727725983</v>
+        <v>-2.324122428894043</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.0717681348323822</v>
+        <v>2.181377410888672</v>
       </c>
       <c r="C384" t="n">
-        <v>-0.106904610991478</v>
+        <v>-0.1246579885482788</v>
       </c>
       <c r="D384" t="n">
-        <v>-0.1199859827756882</v>
+        <v>-2.978434324264526</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>0.008298680186271667</v>
+        <v>2.55314040184021</v>
       </c>
       <c r="C385" t="n">
-        <v>0.0002754554152488708</v>
+        <v>0.8611123561859131</v>
       </c>
       <c r="D385" t="n">
-        <v>-0.1282404065132141</v>
+        <v>-3.285953760147095</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.1170420795679092</v>
+        <v>1.141328096389771</v>
       </c>
       <c r="C386" t="n">
-        <v>-0.1610937714576721</v>
+        <v>-0.08537966012954712</v>
       </c>
       <c r="D386" t="n">
-        <v>-0.1268388032913208</v>
+        <v>-1.362068295478821</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.07827220857143402</v>
+        <v>1.070751428604126</v>
       </c>
       <c r="C387" t="n">
-        <v>-0.09929335117340088</v>
+        <v>0.4738575220108032</v>
       </c>
       <c r="D387" t="n">
-        <v>-0.127631664276123</v>
+        <v>-1.654871940612793</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.1136459782719612</v>
+        <v>0.7475579977035522</v>
       </c>
       <c r="C388" t="n">
-        <v>-0.1188672780990601</v>
+        <v>0.1698043942451477</v>
       </c>
       <c r="D388" t="n">
-        <v>-0.09600009769201279</v>
+        <v>-0.9614826440811157</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.09188736230134964</v>
+        <v>1.279967188835144</v>
       </c>
       <c r="C389" t="n">
-        <v>-0.09416631609201431</v>
+        <v>0.2915973663330078</v>
       </c>
       <c r="D389" t="n">
-        <v>-0.148243322968483</v>
+        <v>-1.802056789398193</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.03117761760950089</v>
+        <v>1.425830364227295</v>
       </c>
       <c r="C390" t="n">
-        <v>-0.04942958056926727</v>
+        <v>0.9007698893547058</v>
       </c>
       <c r="D390" t="n">
-        <v>-0.1452381312847137</v>
+        <v>-2.218418836593628</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.006547734141349792</v>
+        <v>1.855279088020325</v>
       </c>
       <c r="C391" t="n">
-        <v>-0.02549311518669128</v>
+        <v>0.8819500207901001</v>
       </c>
       <c r="D391" t="n">
-        <v>-0.1395900994539261</v>
+        <v>-2.651777505874634</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.04784475639462471</v>
+        <v>2.389779090881348</v>
       </c>
       <c r="C392" t="n">
-        <v>-0.07496417313814163</v>
+        <v>0.3945327997207642</v>
       </c>
       <c r="D392" t="n">
-        <v>-0.1282281875610352</v>
+        <v>-3.214176416397095</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.03915838524699211</v>
+        <v>1.229460954666138</v>
       </c>
       <c r="C393" t="n">
-        <v>-0.05937774479389191</v>
+        <v>0.7462913990020752</v>
       </c>
       <c r="D393" t="n">
-        <v>-0.147403746843338</v>
+        <v>-1.999976277351379</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.09225323051214218</v>
+        <v>1.018592834472656</v>
       </c>
       <c r="C394" t="n">
-        <v>-0.1334849745035172</v>
+        <v>0.3470153510570526</v>
       </c>
       <c r="D394" t="n">
-        <v>-0.1250962466001511</v>
+        <v>-1.579071164131165</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.02619022130966187</v>
+        <v>1.605691313743591</v>
       </c>
       <c r="C395" t="n">
-        <v>-0.04182737320661545</v>
+        <v>0.8839458823204041</v>
       </c>
       <c r="D395" t="n">
-        <v>-0.1414647996425629</v>
+        <v>-2.392752170562744</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.06154261156916618</v>
+        <v>1.174144148826599</v>
       </c>
       <c r="C396" t="n">
-        <v>-0.07511673867702484</v>
+        <v>0.4596753120422363</v>
       </c>
       <c r="D396" t="n">
-        <v>-0.1414746642112732</v>
+        <v>-1.793599843978882</v>
       </c>
     </row>
     <row r="397">
@@ -5979,13 +5979,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.08131781220436096</v>
+        <v>1.721698760986328</v>
       </c>
       <c r="C397" t="n">
-        <v>-0.09010943025350571</v>
+        <v>0.1954431682825089</v>
       </c>
       <c r="D397" t="n">
-        <v>-0.1422687321901321</v>
+        <v>-2.520904779434204</v>
       </c>
     </row>
     <row r="398">
@@ -5993,13 +5993,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.07759964466094971</v>
+        <v>0.9206981658935547</v>
       </c>
       <c r="C398" t="n">
-        <v>-0.1096257865428925</v>
+        <v>0.4448677003383636</v>
       </c>
       <c r="D398" t="n">
-        <v>-0.1188298910856247</v>
+        <v>-1.405029892921448</v>
       </c>
     </row>
     <row r="399">
@@ -6007,13 +6007,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.06264825165271759</v>
+        <v>1.594638109207153</v>
       </c>
       <c r="C399" t="n">
-        <v>-0.07478751987218857</v>
+        <v>0.2656787037849426</v>
       </c>
       <c r="D399" t="n">
-        <v>-0.1354163587093353</v>
+        <v>-2.350398778915405</v>
       </c>
     </row>
     <row r="400">
@@ -6021,13 +6021,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.09037062525749207</v>
+        <v>1.131764888763428</v>
       </c>
       <c r="C400" t="n">
-        <v>-0.1193084940314293</v>
+        <v>0.4800311326980591</v>
       </c>
       <c r="D400" t="n">
-        <v>-0.1398804187774658</v>
+        <v>-1.738554835319519</v>
       </c>
     </row>
     <row r="401">
@@ -6035,13 +6035,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.07374036312103271</v>
+        <v>1.080988168716431</v>
       </c>
       <c r="C401" t="n">
-        <v>-0.1036512702703476</v>
+        <v>0.240754172205925</v>
       </c>
       <c r="D401" t="n">
-        <v>-0.1155592575669289</v>
+        <v>-1.502572655677795</v>
       </c>
     </row>
     <row r="402">
@@ -6049,13 +6049,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.07073947042226791</v>
+        <v>1.215283989906311</v>
       </c>
       <c r="C402" t="n">
-        <v>-0.07321436703205109</v>
+        <v>0.5135247111320496</v>
       </c>
       <c r="D402" t="n">
-        <v>-0.1440349817276001</v>
+        <v>-1.943475484848022</v>
       </c>
     </row>
     <row r="403">
@@ -6063,13 +6063,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.120891347527504</v>
+        <v>0.3864911198616028</v>
       </c>
       <c r="C403" t="n">
-        <v>-0.1725178956985474</v>
+        <v>0.5347064137458801</v>
       </c>
       <c r="D403" t="n">
-        <v>-0.1278554648160934</v>
+        <v>-0.9555208683013916</v>
       </c>
     </row>
     <row r="404">
@@ -6077,13 +6077,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>0.003079779446125031</v>
+        <v>2.141012907028198</v>
       </c>
       <c r="C404" t="n">
-        <v>-0.005484826862812042</v>
+        <v>0.9951880574226379</v>
       </c>
       <c r="D404" t="n">
-        <v>-0.1359927952289581</v>
+        <v>-2.986346960067749</v>
       </c>
     </row>
     <row r="405">
@@ -6091,13 +6091,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>-0.1295897364616394</v>
+        <v>0.7360717058181763</v>
       </c>
       <c r="C405" t="n">
-        <v>-0.1743039339780807</v>
+        <v>0.3081086575984955</v>
       </c>
       <c r="D405" t="n">
-        <v>-0.1120640859007835</v>
+        <v>-1.039174795150757</v>
       </c>
     </row>
     <row r="406">
@@ -6105,13 +6105,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.05523064732551575</v>
+        <v>1.016412138938904</v>
       </c>
       <c r="C406" t="n">
-        <v>-0.09367340803146362</v>
+        <v>0.6308215856552124</v>
       </c>
       <c r="D406" t="n">
-        <v>-0.1374772191047668</v>
+        <v>-1.737527966499329</v>
       </c>
     </row>
     <row r="407">
@@ -6119,13 +6119,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.08462753891944885</v>
+        <v>1.021422147750854</v>
       </c>
       <c r="C407" t="n">
-        <v>-0.1229236274957657</v>
+        <v>0.4375452399253845</v>
       </c>
       <c r="D407" t="n">
-        <v>-0.1372101902961731</v>
+        <v>-1.608917832374573</v>
       </c>
     </row>
     <row r="408">
@@ -6133,13 +6133,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.094681516289711</v>
+        <v>0.9035686850547791</v>
       </c>
       <c r="C408" t="n">
-        <v>-0.1365430057048798</v>
+        <v>0.3407194018363953</v>
       </c>
       <c r="D408" t="n">
-        <v>-0.1217450052499771</v>
+        <v>-1.328472971916199</v>
       </c>
     </row>
     <row r="409">
@@ -6147,13 +6147,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>-0.1252528578042984</v>
+        <v>0.5503159165382385</v>
       </c>
       <c r="C409" t="n">
-        <v>-0.1754930466413498</v>
+        <v>0.08211886882781982</v>
       </c>
       <c r="D409" t="n">
-        <v>-0.1240738928318024</v>
+        <v>-0.3914422392845154</v>
       </c>
     </row>
   </sheetData>

--- a/programs/autoencoder/data/result_not_consider_enc.xlsx
+++ b/programs/autoencoder/data/result_not_consider_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.064822316169739</v>
+        <v>1.089334726333618</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04164904356002808</v>
+        <v>-0.9554716348648071</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.375981688499451</v>
+        <v>-0.6537905931472778</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.063957691192627</v>
+        <v>1.612696290016174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1765505373477936</v>
+        <v>-1.842809677124023</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.815639734268188</v>
+        <v>-1.446807622909546</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.40887975692749</v>
+        <v>1.970500469207764</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6232457160949707</v>
+        <v>-2.522018909454346</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.239242792129517</v>
+        <v>-2.382934808731079</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.629082798957825</v>
+        <v>0.9844068884849548</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6074703931808472</v>
+        <v>-1.140984535217285</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.673290252685547</v>
+        <v>-0.4740378856658936</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.567589402198792</v>
+        <v>1.661628723144531</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0002531707286834717</v>
+        <v>-1.799628019332886</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.228235244750977</v>
+        <v>-1.191522121429443</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.494975209236145</v>
+        <v>2.024966478347778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8136999607086182</v>
+        <v>-1.852950930595398</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.278538942337036</v>
+        <v>-1.442268848419189</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.5413818359375</v>
+        <v>2.307957649230957</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9386268258094788</v>
+        <v>-2.440161466598511</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.338956117630005</v>
+        <v>-2.122214317321777</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.681219100952148</v>
+        <v>1.624890565872192</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2339961230754852</v>
+        <v>-1.459099054336548</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.401736736297607</v>
+        <v>-1.307779550552368</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.053883790969849</v>
+        <v>1.888617992401123</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7444173693656921</v>
+        <v>-1.493165493011475</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.815585970878601</v>
+        <v>-1.318196058273315</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.532069325447083</v>
+        <v>1.716605067253113</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.05846309661865234</v>
+        <v>-1.83988893032074</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.052530288696289</v>
+        <v>-1.041272759437561</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.10353696346283</v>
+        <v>1.406509041786194</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2725840210914612</v>
+        <v>-1.153488278388977</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.569975018501282</v>
+        <v>-0.8927052021026611</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8914260864257812</v>
+        <v>1.042188048362732</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05533137917518616</v>
+        <v>-0.7513091564178467</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.235564112663269</v>
+        <v>-0.6227004528045654</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9859943985939026</v>
+        <v>1.495773553848267</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4652529060840607</v>
+        <v>-1.326104402542114</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.532548308372498</v>
+        <v>-1.151695966720581</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9537653923034668</v>
+        <v>0.9502216577529907</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0200514942407608</v>
+        <v>-0.6406108140945435</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.246458411216736</v>
+        <v>-0.4639049768447876</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.411916255950928</v>
+        <v>1.688311576843262</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2824120223522186</v>
+        <v>-1.583114743232727</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.113831996917725</v>
+        <v>-1.175284624099731</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.409728169441223</v>
+        <v>1.7174072265625</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4257485270500183</v>
+        <v>-1.594934701919556</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.170391798019409</v>
+        <v>-1.243476867675781</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.136167764663696</v>
+        <v>1.649466991424561</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4473449885845184</v>
+        <v>-1.326932668685913</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.709232687950134</v>
+        <v>-1.076759338378906</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8707772493362427</v>
+        <v>1.064714670181274</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09872562438249588</v>
+        <v>-1.154237270355225</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.345044493675232</v>
+        <v>-0.8543099761009216</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.182219505310059</v>
+        <v>1.539876818656921</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2960504591464996</v>
+        <v>-1.37486743927002</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.681905388832092</v>
+        <v>-1.044151425361633</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7911422252655029</v>
+        <v>1.174561262130737</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2721798121929169</v>
+        <v>-0.7018020153045654</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.132969379425049</v>
+        <v>-0.6294438242912292</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.259172439575195</v>
+        <v>1.383082389831543</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1619912087917328</v>
+        <v>-1.862439393997192</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.034210205078125</v>
+        <v>-1.467970609664917</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.195405006408691</v>
+        <v>1.76519238948822</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7832902073860168</v>
+        <v>-2.447567939758301</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.176944494247437</v>
+        <v>-2.150555849075317</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.942516803741455</v>
+        <v>2.039083242416382</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8175973296165466</v>
+        <v>-2.014787673950195</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.756251335144043</v>
+        <v>-1.680320262908936</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9937187433242798</v>
+        <v>0.8657181262969971</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.09491392970085144</v>
+        <v>-0.6062391400337219</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.226880788803101</v>
+        <v>-0.4743832945823669</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.362732887268066</v>
+        <v>2.058093309402466</v>
       </c>
       <c r="C26" t="n">
-        <v>0.881618857383728</v>
+        <v>-1.771635293960571</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.178836345672607</v>
+        <v>-1.441800355911255</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.024282455444336</v>
+        <v>2.142566442489624</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9266782999038696</v>
+        <v>-2.100246429443359</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.873103380203247</v>
+        <v>-1.783174872398376</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.724252104759216</v>
+        <v>1.748560786247253</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08910465240478516</v>
+        <v>-1.786098480224609</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.527070999145508</v>
+        <v>-1.612635612487793</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.840730786323547</v>
+        <v>1.456457138061523</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2594221234321594</v>
+        <v>-1.896923899650574</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.610584020614624</v>
+        <v>-1.229863166809082</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9847190380096436</v>
+        <v>1.503990888595581</v>
       </c>
       <c r="C30" t="n">
-        <v>0.487186998128891</v>
+        <v>-1.072070717811584</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.484424948692322</v>
+        <v>-0.9923739433288574</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.453584313392639</v>
+        <v>1.848938941955566</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5924927592277527</v>
+        <v>-1.685757756233215</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.217738628387451</v>
+        <v>-1.391347408294678</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8717028498649597</v>
+        <v>1.138866066932678</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2629119753837585</v>
+        <v>-0.6972750425338745</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.070317506790161</v>
+        <v>-0.6808176636695862</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.699054718017578</v>
+        <v>2.131630420684814</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.4339592456817627</v>
+        <v>-2.639427900314331</v>
       </c>
       <c r="D33" t="n">
-        <v>-3.504837989807129</v>
+        <v>-2.503392457962036</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.500352263450623</v>
+        <v>1.843394637107849</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5792702436447144</v>
+        <v>-1.709412574768066</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.291802167892456</v>
+        <v>-1.395386099815369</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.927744746208191</v>
+        <v>1.502429723739624</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.00780719518661499</v>
+        <v>-1.660216927528381</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.670125246047974</v>
+        <v>-1.230711936950684</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.881891489028931</v>
+        <v>2.114614248275757</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9518064260482788</v>
+        <v>-2.044139623641968</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.734437227249146</v>
+        <v>-1.711940884590149</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.867401242256165</v>
+        <v>1.600739479064941</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2469490766525269</v>
+        <v>-2.107321500778198</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.736829042434692</v>
+        <v>-1.343050241470337</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.77472198009491</v>
+        <v>2.073455333709717</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9135001301765442</v>
+        <v>-1.937153697013855</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.523428678512573</v>
+        <v>-1.580350399017334</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.062904238700867</v>
+        <v>0.7541096210479736</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.215344250202179</v>
+        <v>-0.6018332242965698</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.170366883277893</v>
+        <v>-0.6017246246337891</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.070438385009766</v>
+        <v>1.841357469558716</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6961855292320251</v>
+        <v>-1.452213525772095</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.818252801895142</v>
+        <v>-1.231719374656677</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.979294180870056</v>
+        <v>1.562970995903015</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.292686402797699</v>
+        <v>-1.849946737289429</v>
       </c>
       <c r="D41" t="n">
-        <v>-2.737233638763428</v>
+        <v>-1.513182401657104</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.116027116775513</v>
+        <v>1.887416124343872</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6790114641189575</v>
+        <v>-1.502025485038757</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.857584118843079</v>
+        <v>-1.221147060394287</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.69894278049469</v>
+        <v>1.649510860443115</v>
       </c>
       <c r="C43" t="n">
-        <v>0.291052520275116</v>
+        <v>-1.638724803924561</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.406249284744263</v>
+        <v>-1.334163665771484</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.114075422286987</v>
+        <v>1.473431468009949</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3113318979740143</v>
+        <v>-1.144232630729675</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.552818894386292</v>
+        <v>-0.9552028775215149</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.128364205360413</v>
+        <v>1.69657826423645</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4373328983783722</v>
+        <v>-1.169992923736572</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.669184327125549</v>
+        <v>-0.9063355326652527</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8566586971282959</v>
+        <v>1.264355659484863</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3316530585289001</v>
+        <v>-0.8652493953704834</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.293782830238342</v>
+        <v>-0.717487096786499</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.31121551990509</v>
+        <v>1.286855101585388</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.07090547680854797</v>
+        <v>-1.188962578773499</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.679836750030518</v>
+        <v>-0.7359739542007446</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.094841241836548</v>
+        <v>2.351329326629639</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.180449247360229</v>
+        <v>-3.158889770507812</v>
       </c>
       <c r="D48" t="n">
-        <v>-3.820108413696289</v>
+        <v>-3.197454690933228</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9936765432357788</v>
+        <v>1.459723591804504</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4251130819320679</v>
+        <v>-1.105702042579651</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.510976552963257</v>
+        <v>-0.9315808415412903</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9574111700057983</v>
+        <v>1.654854297637939</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6168598532676697</v>
+        <v>-1.241267919540405</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.489960312843323</v>
+        <v>-1.196116805076599</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.516037344932556</v>
+        <v>2.035642385482788</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8618137836456299</v>
+        <v>-1.8492112159729</v>
       </c>
       <c r="D51" t="n">
-        <v>-2.291433572769165</v>
+        <v>-1.483067393302917</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.286680459976196</v>
+        <v>0.8455241918563843</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.6684821844100952</v>
+        <v>-0.5116735696792603</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.555271744728088</v>
+        <v>-0.3143699169158936</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.174940347671509</v>
+        <v>1.734918117523193</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4261013269424438</v>
+        <v>-1.499313473701477</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.791075587272644</v>
+        <v>-1.115600228309631</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.899595618247986</v>
+        <v>1.786747932434082</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4512217044830322</v>
+        <v>-1.865873217582703</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.665350198745728</v>
+        <v>-1.491248488426208</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5746517181396484</v>
+        <v>1.563387393951416</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6225087642669678</v>
+        <v>-1.281455993652344</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.190290570259094</v>
+        <v>-1.320613384246826</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.565398812294006</v>
+        <v>1.860910892486572</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5925431847572327</v>
+        <v>-1.771650552749634</v>
       </c>
       <c r="D56" t="n">
-        <v>-2.293606281280518</v>
+        <v>-1.406843900680542</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.426409602165222</v>
+        <v>1.02395236492157</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.3858078718185425</v>
+        <v>-1.049483895301819</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.491119146347046</v>
+        <v>-0.571126401424408</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.962990403175354</v>
+        <v>1.519954323768616</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5196253061294556</v>
+        <v>-1.130818605422974</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.450893759727478</v>
+        <v>-1.059552550315857</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.386579751968384</v>
+        <v>1.685639023780823</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1752111613750458</v>
+        <v>-1.533866763114929</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.841312766075134</v>
+        <v>-0.9932395219802856</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.966517925262451</v>
+        <v>1.819469332695007</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3696965575218201</v>
+        <v>-1.940403938293457</v>
       </c>
       <c r="D60" t="n">
-        <v>-2.764906406402588</v>
+        <v>-1.489311695098877</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.116368532180786</v>
+        <v>1.67009699344635</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4813793897628784</v>
+        <v>-1.293612599372864</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.713269829750061</v>
+        <v>-1.060399055480957</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6351937651634216</v>
+        <v>0.827173113822937</v>
       </c>
       <c r="C62" t="n">
-        <v>0.04048523306846619</v>
+        <v>-0.3827114701271057</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.833200216293335</v>
+        <v>-0.4176468849182129</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.546900153160095</v>
+        <v>1.732520580291748</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3638344705104828</v>
+        <v>-1.578719258308411</v>
       </c>
       <c r="D63" t="n">
-        <v>-2.317750930786133</v>
+        <v>-1.441298604011536</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.721983790397644</v>
+        <v>1.95840585231781</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7707837224006653</v>
+        <v>-1.828081250190735</v>
       </c>
       <c r="D64" t="n">
-        <v>-2.476758241653442</v>
+        <v>-1.534051179885864</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9088069200515747</v>
+        <v>1.447654485702515</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4595049619674683</v>
+        <v>-1.117814540863037</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.44915509223938</v>
+        <v>-1.013559103012085</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8433783054351807</v>
+        <v>1.568775415420532</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5993374586105347</v>
+        <v>-1.252122163772583</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.429920315742493</v>
+        <v>-1.191412687301636</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9396625161170959</v>
+        <v>1.402248859405518</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4212340712547302</v>
+        <v>-0.9723806381225586</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.309623122215271</v>
+        <v>-0.9027280807495117</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.441908717155457</v>
+        <v>1.745856642723083</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1027194038033485</v>
+        <v>-1.840128540992737</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.097599983215332</v>
+        <v>-1.190599083900452</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.709291338920593</v>
+        <v>1.55780816078186</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2031574994325638</v>
+        <v>-1.424134850502014</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.457167625427246</v>
+        <v>-1.284018754959106</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.698032975196838</v>
+        <v>1.936242938041687</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7274425625801086</v>
+        <v>-1.700821995735168</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.401652812957764</v>
+        <v>-1.489160299301147</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9748265743255615</v>
+        <v>1.286133766174316</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2156169712543488</v>
+        <v>-0.9392046928405762</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.364721417427063</v>
+        <v>-0.7175732851028442</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.264718770980835</v>
+        <v>0.7680165767669678</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.99147629737854</v>
+        <v>-1.126749396324158</v>
       </c>
       <c r="D72" t="n">
-        <v>-3.866111278533936</v>
+        <v>-1.067508459091187</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.192897796630859</v>
+        <v>2.075296878814697</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7656630277633667</v>
+        <v>-2.140611886978149</v>
       </c>
       <c r="D73" t="n">
-        <v>-2.744967699050903</v>
+        <v>-1.656193017959595</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.797521591186523</v>
+        <v>1.89556360244751</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6249644160270691</v>
+        <v>-1.803177833557129</v>
       </c>
       <c r="D74" t="n">
-        <v>-2.563390731811523</v>
+        <v>-1.565258026123047</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.560169816017151</v>
+        <v>1.731657743453979</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3522103428840637</v>
+        <v>-1.630804777145386</v>
       </c>
       <c r="D75" t="n">
-        <v>-2.377958297729492</v>
+        <v>-1.422276020050049</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.323212027549744</v>
+        <v>1.898431301116943</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6139702796936035</v>
+        <v>-1.631660580635071</v>
       </c>
       <c r="D76" t="n">
-        <v>-2.126373291015625</v>
+        <v>-1.356148481369019</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.958701133728027</v>
+        <v>1.803613901138306</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4022115468978882</v>
+        <v>-1.886981964111328</v>
       </c>
       <c r="D77" t="n">
-        <v>-2.717780828475952</v>
+        <v>-1.548190116882324</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.391397356987</v>
+        <v>1.737447261810303</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3752670884132385</v>
+        <v>-1.558388829231262</v>
       </c>
       <c r="D78" t="n">
-        <v>-2.055213928222656</v>
+        <v>-1.187990069389343</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.340826272964478</v>
+        <v>2.077220916748047</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8942512273788452</v>
+        <v>-1.750276327133179</v>
       </c>
       <c r="D79" t="n">
-        <v>-2.137810945510864</v>
+        <v>-1.418038249015808</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.22130298614502</v>
+        <v>1.567659616470337</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2484446465969086</v>
+        <v>-1.330508470535278</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.7053462266922</v>
+        <v>-0.9626153111457825</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.816940665245056</v>
+        <v>1.111732482910156</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.5476042628288269</v>
+        <v>-1.310568690299988</v>
       </c>
       <c r="D81" t="n">
-        <v>-2.01736044883728</v>
+        <v>-0.679117739200592</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.751451849937439</v>
+        <v>2.051080226898193</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8909705281257629</v>
+        <v>-1.916400074958801</v>
       </c>
       <c r="D82" t="n">
-        <v>-2.518600463867188</v>
+        <v>-1.574698686599731</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.107262253761292</v>
+        <v>1.312637686729431</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1579711437225342</v>
+        <v>-1.060298085212708</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.464217185974121</v>
+        <v>-0.8466338515281677</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.448187589645386</v>
+        <v>2.054556369781494</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9080398678779602</v>
+        <v>-1.789026975631714</v>
       </c>
       <c r="D84" t="n">
-        <v>-2.238886117935181</v>
+        <v>-1.45906138420105</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.15563952922821</v>
+        <v>1.924717664718628</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5994394421577454</v>
+        <v>-1.633316278457642</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.882079601287842</v>
+        <v>-1.236433744430542</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.208953976631165</v>
+        <v>1.793290734291077</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4423531293869019</v>
+        <v>-1.566171646118164</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.836594462394714</v>
+        <v>-1.130745410919189</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.350088953971863</v>
+        <v>1.476313829421997</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01038888096809387</v>
+        <v>-1.300991892814636</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.67530620098114</v>
+        <v>-0.8272315263748169</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9814653396606445</v>
+        <v>1.234229803085327</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2045563757419586</v>
+        <v>-0.9058305621147156</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.315136075019836</v>
+        <v>-0.7886703014373779</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9922133684158325</v>
+        <v>1.805853724479675</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7160353064537048</v>
+        <v>-1.49512255191803</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.766255497932434</v>
+        <v>-1.346561670303345</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.41058075428009</v>
+        <v>1.673432230949402</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3933592140674591</v>
+        <v>-1.502058506011963</v>
       </c>
       <c r="D90" t="n">
-        <v>-2.139580726623535</v>
+        <v>-1.211026906967163</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7628647089004517</v>
+        <v>0.803399920463562</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1563420593738556</v>
+        <v>-0.1856233179569244</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.8233500719070435</v>
+        <v>-0.3168657422065735</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.178215265274048</v>
+        <v>1.634750127792358</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3924711942672729</v>
+        <v>-1.407503962516785</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.752081036567688</v>
+        <v>-1.103466272354126</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5288125872612</v>
+        <v>0.8046293258666992</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.05081036686897278</v>
+        <v>-0.3518659770488739</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.6891789436340332</v>
+        <v>-0.610321581363678</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.286489844322205</v>
+        <v>1.622961044311523</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2083693444728851</v>
+        <v>-1.352465629577637</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.704500317573547</v>
+        <v>-0.9164423942565918</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.733124852180481</v>
+        <v>2.056164503097534</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8916862607002258</v>
+        <v>-1.924005508422852</v>
       </c>
       <c r="D95" t="n">
-        <v>-2.590360641479492</v>
+        <v>-1.643044471740723</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.874595642089844</v>
+        <v>2.074442148208618</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6577103137969971</v>
+        <v>-2.488208055496216</v>
       </c>
       <c r="D96" t="n">
-        <v>-3.621588468551636</v>
+        <v>-1.973601102828979</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.535556793212891</v>
+        <v>2.181357145309448</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9553551077842712</v>
+        <v>-2.284968376159668</v>
       </c>
       <c r="D97" t="n">
-        <v>-3.244706392288208</v>
+        <v>-1.928046584129333</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.628251433372498</v>
+        <v>1.505996108055115</v>
       </c>
       <c r="C98" t="n">
-        <v>0.04047076404094696</v>
+        <v>-1.513943195343018</v>
       </c>
       <c r="D98" t="n">
-        <v>-2.203426599502563</v>
+        <v>-1.099662780761719</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.668008208274841</v>
+        <v>1.564204931259155</v>
       </c>
       <c r="C99" t="n">
-        <v>0.04432293772697449</v>
+        <v>-1.579305529594421</v>
       </c>
       <c r="D99" t="n">
-        <v>-2.314655780792236</v>
+        <v>-1.12367570400238</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.942140579223633</v>
+        <v>2.094512224197388</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5185306072235107</v>
+        <v>-2.670157909393311</v>
       </c>
       <c r="D100" t="n">
-        <v>-3.570735454559326</v>
+        <v>-1.614804267883301</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.007224082946777</v>
+        <v>1.405912756919861</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.1623799204826355</v>
+        <v>-1.415931344032288</v>
       </c>
       <c r="D101" t="n">
-        <v>-2.776906251907349</v>
+        <v>-1.350318551063538</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9445703029632568</v>
+        <v>1.613781690597534</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5902227759361267</v>
+        <v>-1.239093661308289</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.453662157058716</v>
+        <v>-1.183010339736938</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.654966354370117</v>
+        <v>0.5689728260040283</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.6956174969673157</v>
+        <v>-0.688544750213623</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.825220704078674</v>
+        <v>-0.373936653137207</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4759194850921631</v>
+        <v>0.5025553107261658</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.464272677898407</v>
+        <v>0.0827791690826416</v>
       </c>
       <c r="D104" t="n">
-        <v>-1.455116629600525</v>
+        <v>-0.2407412678003311</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.793397307395935</v>
+        <v>1.319901466369629</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.2068108320236206</v>
+        <v>-1.414046764373779</v>
       </c>
       <c r="D105" t="n">
-        <v>-2.272535562515259</v>
+        <v>-0.9279366135597229</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.36928117275238</v>
+        <v>1.672103881835938</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4168652892112732</v>
+        <v>-1.457630395889282</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.069418907165527</v>
+        <v>-1.190269470214844</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.351810812950134</v>
+        <v>2.063687562942505</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9005820751190186</v>
+        <v>-1.75466513633728</v>
       </c>
       <c r="D107" t="n">
-        <v>-2.159504652023315</v>
+        <v>-1.446418046951294</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.463499426841736</v>
+        <v>0.8280433416366577</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.5009486079216003</v>
+        <v>-0.7843276262283325</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.40532124042511</v>
+        <v>-0.4590694904327393</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8873554468154907</v>
+        <v>1.174791932106018</v>
       </c>
       <c r="C109" t="n">
-        <v>0.21293705701828</v>
+        <v>-0.8325151205062866</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.228046894073486</v>
+        <v>-0.7383328080177307</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.385841488838196</v>
+        <v>0.8207253813743591</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.7537946105003357</v>
+        <v>-0.6414256691932678</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.673981189727783</v>
+        <v>-0.3316814601421356</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.911699891090393</v>
+        <v>1.992189884185791</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6255022287368774</v>
+        <v>-1.974547386169434</v>
       </c>
       <c r="D111" t="n">
-        <v>-2.711031913757324</v>
+        <v>-1.719350099563599</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.980978012084961</v>
+        <v>1.937438726425171</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1418495178222656</v>
+        <v>-2.132138729095459</v>
       </c>
       <c r="D112" t="n">
-        <v>-2.777989149093628</v>
+        <v>-1.916602611541748</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.768428325653076</v>
+        <v>2.310361385345459</v>
       </c>
       <c r="C113" t="n">
-        <v>1.068601608276367</v>
+        <v>-2.538913488388062</v>
       </c>
       <c r="D113" t="n">
-        <v>-3.506153106689453</v>
+        <v>-2.001753568649292</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.027672290802002</v>
+        <v>1.760753154754639</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6606296300888062</v>
+        <v>-1.464646697044373</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.743634104728699</v>
+        <v>-1.299657821655273</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.676274061203003</v>
+        <v>2.080929279327393</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9359176158905029</v>
+        <v>-1.906321048736572</v>
       </c>
       <c r="D115" t="n">
-        <v>-2.472972869873047</v>
+        <v>-1.582170009613037</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.26135528087616</v>
+        <v>1.884353637695312</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3985657393932343</v>
+        <v>-1.741432785987854</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.86251962184906</v>
+        <v>-1.238829612731934</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.950815796852112</v>
+        <v>1.285366773605347</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.5029903054237366</v>
+        <v>-1.839041233062744</v>
       </c>
       <c r="D117" t="n">
-        <v>-2.888408899307251</v>
+        <v>-1.238535404205322</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.472266793251038</v>
+        <v>2.032856941223145</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8712379932403564</v>
+        <v>-1.797001242637634</v>
       </c>
       <c r="D118" t="n">
-        <v>-2.253138303756714</v>
+        <v>-1.473900556564331</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.628165721893311</v>
+        <v>2.232775926589966</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9725440740585327</v>
+        <v>-2.401482582092285</v>
       </c>
       <c r="D119" t="n">
-        <v>-3.359311103820801</v>
+        <v>-2.016237735748291</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9584162831306458</v>
+        <v>1.225157737731934</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1969662308692932</v>
+        <v>-1.103751301765442</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.396170973777771</v>
+        <v>-0.8771270513534546</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.115890860557556</v>
+        <v>1.226948261260986</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1145481318235397</v>
+        <v>-1.116520166397095</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.449645400047302</v>
+        <v>-0.8505980968475342</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.662657856941223</v>
+        <v>1.402178645133972</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1541180014610291</v>
+        <v>-1.317598700523376</v>
       </c>
       <c r="D122" t="n">
-        <v>-2.245342493057251</v>
+        <v>-1.10930609703064</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.191490769386292</v>
+        <v>1.290709376335144</v>
       </c>
       <c r="C123" t="n">
-        <v>0.03605501353740692</v>
+        <v>-1.055264949798584</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.487816095352173</v>
+        <v>-0.7740423679351807</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.217071175575256</v>
+        <v>1.874797224998474</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5464585423469543</v>
+        <v>-1.642229199409485</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.983440756797791</v>
+        <v>-1.247713327407837</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.82740592956543</v>
+        <v>1.935136198997498</v>
       </c>
       <c r="C125" t="n">
-        <v>0.09395989775657654</v>
+        <v>-1.530938744544983</v>
       </c>
       <c r="D125" t="n">
-        <v>-2.59549880027771</v>
+        <v>-1.760590553283691</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.048284649848938</v>
+        <v>1.694056630134583</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5919099450111389</v>
+        <v>-1.296953678131104</v>
       </c>
       <c r="D126" t="n">
-        <v>-1.718806862831116</v>
+        <v>-1.11590051651001</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.662573456764221</v>
+        <v>1.915121078491211</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7258812785148621</v>
+        <v>-1.750576138496399</v>
       </c>
       <c r="D127" t="n">
-        <v>-2.437620878219604</v>
+        <v>-1.494601130485535</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.438667297363281</v>
+        <v>1.772989630699158</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1762630343437195</v>
+        <v>-1.860345721244812</v>
       </c>
       <c r="D128" t="n">
-        <v>-2.190434455871582</v>
+        <v>-1.261207699775696</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6718858480453491</v>
+        <v>0.7777312994003296</v>
       </c>
       <c r="C129" t="n">
-        <v>0.02144969999790192</v>
+        <v>-0.3367879986763</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.7313226461410522</v>
+        <v>-0.4186913669109344</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.131671786308289</v>
+        <v>1.782016277313232</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5501434803009033</v>
+        <v>-1.495609998703003</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.815572619438171</v>
+        <v>-1.191038370132446</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7031184434890747</v>
+        <v>1.40371561050415</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4600586295127869</v>
+        <v>-1.022950649261475</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.9895088672637939</v>
+        <v>-1.079207062721252</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.332983136177063</v>
+        <v>1.733076095581055</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2896788120269775</v>
+        <v>-1.614235162734985</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.935310244560242</v>
+        <v>-1.076006650924683</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.313214778900146</v>
+        <v>1.740683078765869</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2378714382648468</v>
+        <v>-1.675514459609985</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.879015445709229</v>
+        <v>-1.086128950119019</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.263126611709595</v>
+        <v>1.711905360221863</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2937367856502533</v>
+        <v>-1.496419310569763</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.758960723876953</v>
+        <v>-1.050539612770081</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2.466137409210205</v>
+        <v>2.190105199813843</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.6328375339508057</v>
+        <v>-2.752410411834717</v>
       </c>
       <c r="D135" t="n">
-        <v>-3.303129196166992</v>
+        <v>-2.669074773788452</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9176714420318604</v>
+        <v>1.214003801345825</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2030276656150818</v>
+        <v>-1.025482177734375</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.342186093330383</v>
+        <v>-0.8313831686973572</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.604168295860291</v>
+        <v>1.522620558738708</v>
       </c>
       <c r="C137" t="n">
-        <v>0.153577983379364</v>
+        <v>-1.51612377166748</v>
       </c>
       <c r="D137" t="n">
-        <v>-2.236013650894165</v>
+        <v>-1.18891978263855</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.586109399795532</v>
+        <v>1.636629343032837</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2606656849384308</v>
+        <v>-1.582446813583374</v>
       </c>
       <c r="D138" t="n">
-        <v>-2.384772062301636</v>
+        <v>-1.342100858688354</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.411584377288818</v>
+        <v>1.94110631942749</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7345491647720337</v>
+        <v>-1.697545647621155</v>
       </c>
       <c r="D139" t="n">
-        <v>-2.219296216964722</v>
+        <v>-1.400437116622925</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.047954440116882</v>
+        <v>1.253352284431458</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1686057150363922</v>
+        <v>-0.9907716512680054</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.389122843742371</v>
+        <v>-0.8105748891830444</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.459913849830627</v>
+        <v>1.088104009628296</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.4001001119613647</v>
+        <v>-1.167959332466125</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.547678351402283</v>
+        <v>-0.6421682834625244</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9397037029266357</v>
+        <v>1.491224050521851</v>
       </c>
       <c r="C142" t="n">
-        <v>0.4489572048187256</v>
+        <v>-1.150521397590637</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.405013918876648</v>
+        <v>-1.099283576011658</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.6201163530349731</v>
+        <v>0.9132111072540283</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1653955578804016</v>
+        <v>-0.4403526782989502</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.8996040821075439</v>
+        <v>-0.4398322701454163</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6520534753799438</v>
+        <v>0.9823299050331116</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2409442067146301</v>
+        <v>-0.627120316028595</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.8797013759613037</v>
+        <v>-0.6587375998497009</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.190634250640869</v>
+        <v>1.799788951873779</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4503551721572876</v>
+        <v>-1.523459434509277</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.810905814170837</v>
+        <v>-1.1251540184021</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.879408240318298</v>
+        <v>1.344867706298828</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.4030635952949524</v>
+        <v>-1.803308129310608</v>
       </c>
       <c r="D146" t="n">
-        <v>-2.583645582199097</v>
+        <v>-1.143027663230896</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.725325107574463</v>
+        <v>1.766429662704468</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4275473952293396</v>
+        <v>-1.750005960464478</v>
       </c>
       <c r="D147" t="n">
-        <v>-2.503676652908325</v>
+        <v>-1.469662189483643</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.803518891334534</v>
+        <v>2.049391984939575</v>
       </c>
       <c r="C148" t="n">
-        <v>0.8852687478065491</v>
+        <v>-1.933350563049316</v>
       </c>
       <c r="D148" t="n">
-        <v>-2.603693246841431</v>
+        <v>-1.631740570068359</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9807286262512207</v>
+        <v>1.413086652755737</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4122647941112518</v>
+        <v>-0.9363070726394653</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.389992594718933</v>
+        <v>-0.8378480672836304</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5929974913597107</v>
+        <v>1.256254076957703</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4267665147781372</v>
+        <v>-1.009395837783813</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.9440240859985352</v>
+        <v>-1.070793986320496</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.014836192131042</v>
+        <v>1.51311206817627</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4236482679843903</v>
+        <v>-1.191635608673096</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.58760929107666</v>
+        <v>-0.9945117235183716</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.498034715652466</v>
+        <v>1.39031708240509</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.2829735279083252</v>
+        <v>-1.30761730670929</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.578052163124084</v>
+        <v>-0.6865627765655518</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.818610310554504</v>
+        <v>1.514554142951965</v>
       </c>
       <c r="C153" t="n">
-        <v>0.08108128607273102</v>
+        <v>-1.433176636695862</v>
       </c>
       <c r="D153" t="n">
-        <v>-2.594179630279541</v>
+        <v>-1.318830132484436</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.009172916412354</v>
+        <v>0.7172155380249023</v>
       </c>
       <c r="C154" t="n">
-        <v>-2.575506210327148</v>
+        <v>-1.003754377365112</v>
       </c>
       <c r="D154" t="n">
-        <v>-4.331282138824463</v>
+        <v>-1.084779500961304</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.228538870811462</v>
+        <v>1.201427936553955</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1137772276997566</v>
+        <v>-1.10663890838623</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.831764221191406</v>
+        <v>-0.9984797239303589</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.359026432037354</v>
+        <v>1.328518986701965</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.1033335030078888</v>
+        <v>-1.210328936576843</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.531269907951355</v>
+        <v>-0.7906291484832764</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.536229729652405</v>
+        <v>1.933501005172729</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7698016166687012</v>
+        <v>-1.630139708518982</v>
       </c>
       <c r="D157" t="n">
-        <v>-2.274778604507446</v>
+        <v>-1.416061520576477</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2.383519887924194</v>
+        <v>2.078771352767944</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.3190004229545593</v>
+        <v>-2.436220407485962</v>
       </c>
       <c r="D158" t="n">
-        <v>-3.139494657516479</v>
+        <v>-2.284752607345581</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.414436459541321</v>
+        <v>1.717508554458618</v>
       </c>
       <c r="C159" t="n">
-        <v>0.3532713949680328</v>
+        <v>-1.599424719810486</v>
       </c>
       <c r="D159" t="n">
-        <v>-2.120121955871582</v>
+        <v>-1.242278575897217</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.140359282493591</v>
+        <v>1.247074842453003</v>
       </c>
       <c r="C160" t="n">
-        <v>0.03538979589939117</v>
+        <v>-1.222629070281982</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.52514636516571</v>
+        <v>-0.8598688840866089</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.731910109519958</v>
+        <v>1.804603338241577</v>
       </c>
       <c r="C161" t="n">
-        <v>0.4635696113109589</v>
+        <v>-1.839807033538818</v>
       </c>
       <c r="D161" t="n">
-        <v>-2.520586967468262</v>
+        <v>-1.428722381591797</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2.102151155471802</v>
+        <v>1.988954663276672</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1378907710313797</v>
+        <v>-2.180939197540283</v>
       </c>
       <c r="D162" t="n">
-        <v>-2.923676490783691</v>
+        <v>-1.990410089492798</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.577349066734314</v>
+        <v>1.467743873596191</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.2573668956756592</v>
+        <v>-1.534741878509521</v>
       </c>
       <c r="D163" t="n">
-        <v>-1.842426657676697</v>
+        <v>-0.8343878388404846</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.16489565372467</v>
+        <v>1.533772468566895</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3006386160850525</v>
+        <v>-1.291969776153564</v>
       </c>
       <c r="D164" t="n">
-        <v>-1.658921122550964</v>
+        <v>-0.9966554641723633</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.9504472017288208</v>
+        <v>1.486303925514221</v>
       </c>
       <c r="C165" t="n">
-        <v>0.4558730721473694</v>
+        <v>-1.335821866989136</v>
       </c>
       <c r="D165" t="n">
-        <v>-1.551522850990295</v>
+        <v>-1.144061088562012</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.09099280834198</v>
+        <v>1.741775631904602</v>
       </c>
       <c r="C166" t="n">
-        <v>0.5861237645149231</v>
+        <v>-1.39426589012146</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.756069183349609</v>
+        <v>-1.181678771972656</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.8597396016120911</v>
+        <v>0.3438581228256226</v>
       </c>
       <c r="C167" t="n">
-        <v>-1.181645393371582</v>
+        <v>0.2921997606754303</v>
       </c>
       <c r="D167" t="n">
-        <v>-2.607713222503662</v>
+        <v>-0.02329263836145401</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.680429339408875</v>
+        <v>1.261860609054565</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.4667946696281433</v>
+        <v>-1.380144596099854</v>
       </c>
       <c r="D168" t="n">
-        <v>-1.808261036872864</v>
+        <v>-0.7115522623062134</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.983880877494812</v>
+        <v>2.168178796768188</v>
       </c>
       <c r="C169" t="n">
-        <v>1.019063472747803</v>
+        <v>-2.088498592376709</v>
       </c>
       <c r="D169" t="n">
-        <v>-2.73454737663269</v>
+        <v>-1.703440308570862</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.651124596595764</v>
+        <v>1.338060736656189</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.380824089050293</v>
+        <v>-1.575060367584229</v>
       </c>
       <c r="D170" t="n">
-        <v>-1.970079779624939</v>
+        <v>-0.844599187374115</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.216462969779968</v>
+        <v>1.86085045337677</v>
       </c>
       <c r="C171" t="n">
-        <v>0.4894176721572876</v>
+        <v>-1.692068815231323</v>
       </c>
       <c r="D171" t="n">
-        <v>-1.972042679786682</v>
+        <v>-1.232548475265503</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.540504693984985</v>
+        <v>2.123488187789917</v>
       </c>
       <c r="C172" t="n">
-        <v>0.863945484161377</v>
+        <v>-2.045797109603882</v>
       </c>
       <c r="D172" t="n">
-        <v>-2.341742753982544</v>
+        <v>-1.508988857269287</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.8213298320770264</v>
+        <v>1.05039119720459</v>
       </c>
       <c r="C173" t="n">
-        <v>0.1439370810985565</v>
+        <v>-0.7223736047744751</v>
       </c>
       <c r="D173" t="n">
-        <v>-1.151967406272888</v>
+        <v>-0.6401260495185852</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.9924038648605347</v>
+        <v>1.474939823150635</v>
       </c>
       <c r="C174" t="n">
-        <v>0.4103192687034607</v>
+        <v>-1.162159204483032</v>
       </c>
       <c r="D174" t="n">
-        <v>-1.541734576225281</v>
+        <v>-0.9600417613983154</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.65303647518158</v>
+        <v>1.596208333969116</v>
       </c>
       <c r="C175" t="n">
-        <v>0.1284212321043015</v>
+        <v>-1.650978088378906</v>
       </c>
       <c r="D175" t="n">
-        <v>-2.364879369735718</v>
+        <v>-1.28813910484314</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.074578762054443</v>
+        <v>1.295456409454346</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1738884896039963</v>
+        <v>-1.015788555145264</v>
       </c>
       <c r="D176" t="n">
-        <v>-1.410167694091797</v>
+        <v>-0.8662195801734924</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.534058928489685</v>
+        <v>1.76175057888031</v>
       </c>
       <c r="C177" t="n">
-        <v>0.4247954785823822</v>
+        <v>-1.700578093528748</v>
       </c>
       <c r="D177" t="n">
-        <v>-2.352228403091431</v>
+        <v>-1.363561391830444</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.855442643165588</v>
+        <v>2.104318380355835</v>
       </c>
       <c r="C178" t="n">
-        <v>0.8884046673774719</v>
+        <v>-1.944751739501953</v>
       </c>
       <c r="D178" t="n">
-        <v>-2.688924789428711</v>
+        <v>-1.709739446640015</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.115705609321594</v>
+        <v>1.06610381603241</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.2182843387126923</v>
+        <v>-1.112161159515381</v>
       </c>
       <c r="D179" t="n">
-        <v>-1.49144971370697</v>
+        <v>-0.764137864112854</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.726022362709045</v>
+        <v>1.606587648391724</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.02066312730312347</v>
+        <v>-1.798946499824524</v>
       </c>
       <c r="D180" t="n">
-        <v>-2.489092826843262</v>
+        <v>-1.324629426002502</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.381955504417419</v>
+        <v>1.77993631362915</v>
       </c>
       <c r="C181" t="n">
-        <v>0.5408080816268921</v>
+        <v>-1.542892575263977</v>
       </c>
       <c r="D181" t="n">
-        <v>-2.155742645263672</v>
+        <v>-1.30819833278656</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.821935772895813</v>
+        <v>1.633442163467407</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01060366630554199</v>
+        <v>-1.887317180633545</v>
       </c>
       <c r="D182" t="n">
-        <v>-2.535316705703735</v>
+        <v>-1.390629768371582</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.74005663394928</v>
+        <v>1.736440896987915</v>
       </c>
       <c r="C183" t="n">
-        <v>0.3199474215507507</v>
+        <v>-1.820462584495544</v>
       </c>
       <c r="D183" t="n">
-        <v>-2.529719591140747</v>
+        <v>-1.498228549957275</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.6816264390945435</v>
+        <v>1.432172298431396</v>
       </c>
       <c r="C184" t="n">
-        <v>0.5460125207901001</v>
+        <v>-1.246751546859741</v>
       </c>
       <c r="D184" t="n">
-        <v>-1.255934357643127</v>
+        <v>-1.16989541053772</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2.595066547393799</v>
+        <v>1.845432996749878</v>
       </c>
       <c r="C185" t="n">
-        <v>0.3011492788791656</v>
+        <v>-2.287556409835815</v>
       </c>
       <c r="D185" t="n">
-        <v>-3.370515584945679</v>
+        <v>-1.746475100517273</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.9706257581710815</v>
+        <v>1.58493709564209</v>
       </c>
       <c r="C186" t="n">
-        <v>0.5744330883026123</v>
+        <v>-1.218560457229614</v>
       </c>
       <c r="D186" t="n">
-        <v>-1.628246903419495</v>
+        <v>-1.10319972038269</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.390216946601868</v>
+        <v>1.707726240158081</v>
       </c>
       <c r="C187" t="n">
-        <v>0.1232707351446152</v>
+        <v>-1.730021715164185</v>
       </c>
       <c r="D187" t="n">
-        <v>-1.956027388572693</v>
+        <v>-1.071097373962402</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.641358137130737</v>
+        <v>1.780436515808105</v>
       </c>
       <c r="C188" t="n">
-        <v>0.4103237390518188</v>
+        <v>-1.773717164993286</v>
       </c>
       <c r="D188" t="n">
-        <v>-2.38619065284729</v>
+        <v>-1.369648933410645</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>2.406132698059082</v>
+        <v>1.983767032623291</v>
       </c>
       <c r="C189" t="n">
-        <v>0.4395617842674255</v>
+        <v>-2.234357833862305</v>
       </c>
       <c r="D189" t="n">
-        <v>-3.173442602157593</v>
+        <v>-1.914342403411865</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.023679614067078</v>
+        <v>1.804207921028137</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7017267346382141</v>
+        <v>-1.47203516960144</v>
       </c>
       <c r="D190" t="n">
-        <v>-1.758838295936584</v>
+        <v>-1.318943500518799</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.050884127616882</v>
+        <v>1.677737712860107</v>
       </c>
       <c r="C191" t="n">
-        <v>0.5895144939422607</v>
+        <v>-1.216691017150879</v>
       </c>
       <c r="D191" t="n">
-        <v>-1.674135565757751</v>
+        <v>-1.085942029953003</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.775971531867981</v>
+        <v>1.47097110748291</v>
       </c>
       <c r="C192" t="n">
-        <v>0.5172886252403259</v>
+        <v>-1.090800285339355</v>
       </c>
       <c r="D192" t="n">
-        <v>-1.186162233352661</v>
+        <v>-1.104066848754883</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.947232604026794</v>
+        <v>2.030586957931519</v>
       </c>
       <c r="C193" t="n">
-        <v>0.6328850984573364</v>
+        <v>-2.191759824752808</v>
       </c>
       <c r="D193" t="n">
-        <v>-2.698784112930298</v>
+        <v>-1.501619458198547</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3.341529846191406</v>
+        <v>1.509314775466919</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.6620941162109375</v>
+        <v>-2.462157011032104</v>
       </c>
       <c r="D194" t="n">
-        <v>-4.471887588500977</v>
+        <v>-1.888879537582397</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>2.063462495803833</v>
+        <v>2.062215805053711</v>
       </c>
       <c r="C195" t="n">
-        <v>0.8050743937492371</v>
+        <v>-2.128786325454712</v>
       </c>
       <c r="D195" t="n">
-        <v>-2.712123870849609</v>
+        <v>-1.589839935302734</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.7910903096199036</v>
+        <v>1.040360331535339</v>
       </c>
       <c r="C196" t="n">
-        <v>0.07619473338127136</v>
+        <v>-0.6305088996887207</v>
       </c>
       <c r="D196" t="n">
-        <v>-1.137196183204651</v>
+        <v>-0.5120570659637451</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.229742527008057</v>
+        <v>0.9825065732002258</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.2183975279331207</v>
+        <v>-0.8784580826759338</v>
       </c>
       <c r="D197" t="n">
-        <v>-1.436250329017639</v>
+        <v>-0.5633670091629028</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.643270969390869</v>
+        <v>1.623772382736206</v>
       </c>
       <c r="C198" t="n">
-        <v>0.2462699711322784</v>
+        <v>-1.429447054862976</v>
       </c>
       <c r="D198" t="n">
-        <v>-2.365190744400024</v>
+        <v>-1.343552350997925</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1.008958220481873</v>
+        <v>1.53117036819458</v>
       </c>
       <c r="C199" t="n">
-        <v>0.4778202772140503</v>
+        <v>-1.040896892547607</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.529945015907288</v>
+        <v>-0.8782350420951843</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.968045353889465</v>
+        <v>1.83461594581604</v>
       </c>
       <c r="C200" t="n">
-        <v>0.239435225725174</v>
+        <v>-1.962845802307129</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.820264339447021</v>
+        <v>-1.731391191482544</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1.414576888084412</v>
+        <v>1.432645440101624</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.1199643015861511</v>
+        <v>-1.32118809223175</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.591474294662476</v>
+        <v>-0.8023907542228699</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.915743708610535</v>
+        <v>1.663834095001221</v>
       </c>
       <c r="C202" t="n">
-        <v>0.1165742576122284</v>
+        <v>-1.848109841346741</v>
       </c>
       <c r="D202" t="n">
-        <v>-2.674163579940796</v>
+        <v>-1.5527184009552</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.664375901222229</v>
+        <v>2.120552539825439</v>
       </c>
       <c r="C203" t="n">
-        <v>0.8002166748046875</v>
+        <v>-2.124218463897705</v>
       </c>
       <c r="D203" t="n">
-        <v>-2.448201894760132</v>
+        <v>-1.513138771057129</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.036563277244568</v>
+        <v>1.307985782623291</v>
       </c>
       <c r="C204" t="n">
-        <v>0.2463144361972809</v>
+        <v>-1.115177392959595</v>
       </c>
       <c r="D204" t="n">
-        <v>-1.425494074821472</v>
+        <v>-0.9345463514328003</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1.310572743415833</v>
+        <v>1.33445930480957</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.06313687562942505</v>
+        <v>-1.253267526626587</v>
       </c>
       <c r="D205" t="n">
-        <v>-1.587421178817749</v>
+        <v>-0.7829650640487671</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.497097492218018</v>
+        <v>1.148255109786987</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.3744785785675049</v>
+        <v>-1.098333716392517</v>
       </c>
       <c r="D206" t="n">
-        <v>-1.525341153144836</v>
+        <v>-0.5864369869232178</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2.18246865272522</v>
+        <v>1.569389581680298</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.7130568027496338</v>
+        <v>-2.004422903060913</v>
       </c>
       <c r="D207" t="n">
-        <v>-2.880414247512817</v>
+        <v>-1.845317602157593</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1.188011527061462</v>
+        <v>1.655103802680969</v>
       </c>
       <c r="C208" t="n">
-        <v>0.3633140325546265</v>
+        <v>-1.45707380771637</v>
       </c>
       <c r="D208" t="n">
-        <v>-1.734010100364685</v>
+        <v>-1.074434995651245</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.014734745025635</v>
+        <v>1.361905813217163</v>
       </c>
       <c r="C209" t="n">
-        <v>0.3121131956577301</v>
+        <v>-1.035192489624023</v>
       </c>
       <c r="D209" t="n">
-        <v>-1.453409790992737</v>
+        <v>-0.8044211268424988</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.495096802711487</v>
+        <v>1.763463020324707</v>
       </c>
       <c r="C210" t="n">
-        <v>0.4670358300209045</v>
+        <v>-1.67385721206665</v>
       </c>
       <c r="D210" t="n">
-        <v>-2.253440141677856</v>
+        <v>-1.35394549369812</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.011226892471313</v>
+        <v>1.809881448745728</v>
       </c>
       <c r="C211" t="n">
-        <v>0.6907858848571777</v>
+        <v>-1.474776148796082</v>
       </c>
       <c r="D211" t="n">
-        <v>-1.733844637870789</v>
+        <v>-1.325463771820068</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1.118078351020813</v>
+        <v>1.660692811012268</v>
       </c>
       <c r="C212" t="n">
-        <v>0.4862739741802216</v>
+        <v>-1.351885437965393</v>
       </c>
       <c r="D212" t="n">
-        <v>-1.735862374305725</v>
+        <v>-1.147575974464417</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.367128610610962</v>
+        <v>1.863612651824951</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5905977487564087</v>
+        <v>-1.635809898376465</v>
       </c>
       <c r="D213" t="n">
-        <v>-2.176062345504761</v>
+        <v>-1.346180081367493</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2.138025999069214</v>
+        <v>1.883887767791748</v>
       </c>
       <c r="C214" t="n">
-        <v>0.3329448699951172</v>
+        <v>-2.040377140045166</v>
       </c>
       <c r="D214" t="n">
-        <v>-2.970354318618774</v>
+        <v>-1.767347097396851</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.481137871742249</v>
+        <v>1.867212295532227</v>
       </c>
       <c r="C215" t="n">
-        <v>0.5522452592849731</v>
+        <v>-1.780335426330566</v>
       </c>
       <c r="D215" t="n">
-        <v>-2.201917171478271</v>
+        <v>-1.372346758842468</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1.208959341049194</v>
+        <v>1.392080664634705</v>
       </c>
       <c r="C216" t="n">
-        <v>0.1416821479797363</v>
+        <v>-1.238976001739502</v>
       </c>
       <c r="D216" t="n">
-        <v>-1.605631947517395</v>
+        <v>-0.9226179718971252</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.7819568514823914</v>
+        <v>1.32125997543335</v>
       </c>
       <c r="C217" t="n">
-        <v>0.4131414294242859</v>
+        <v>-0.9134652614593506</v>
       </c>
       <c r="D217" t="n">
-        <v>-1.115522623062134</v>
+        <v>-0.9343991279602051</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.220964550971985</v>
+        <v>1.847470760345459</v>
       </c>
       <c r="C218" t="n">
-        <v>0.4471961259841919</v>
+        <v>-1.600229263305664</v>
       </c>
       <c r="D218" t="n">
-        <v>-1.846436858177185</v>
+        <v>-1.14371657371521</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1.114058971405029</v>
+        <v>1.7393798828125</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5155514478683472</v>
+        <v>-1.361420273780823</v>
       </c>
       <c r="D219" t="n">
-        <v>-1.768039345741272</v>
+        <v>-1.071914434432983</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.436874151229858</v>
+        <v>1.916856288909912</v>
       </c>
       <c r="C220" t="n">
-        <v>0.5384972095489502</v>
+        <v>-1.868869781494141</v>
       </c>
       <c r="D220" t="n">
-        <v>-2.171729564666748</v>
+        <v>-1.341508865356445</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2.715448379516602</v>
+        <v>2.221756219863892</v>
       </c>
       <c r="C221" t="n">
-        <v>0.9509205222129822</v>
+        <v>-2.493420839309692</v>
       </c>
       <c r="D221" t="n">
-        <v>-3.447723150253296</v>
+        <v>-1.972539901733398</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2.697023391723633</v>
+        <v>2.085125207901001</v>
       </c>
       <c r="C222" t="n">
-        <v>0.2170471847057343</v>
+        <v>-2.454339742660522</v>
       </c>
       <c r="D222" t="n">
-        <v>-3.49284839630127</v>
+        <v>-2.145418167114258</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.8535822629928589</v>
+        <v>1.443965911865234</v>
       </c>
       <c r="C223" t="n">
-        <v>0.4685378670692444</v>
+        <v>-1.349418044090271</v>
       </c>
       <c r="D223" t="n">
-        <v>-1.441470742225647</v>
+        <v>-1.185054302215576</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.418420076370239</v>
+        <v>1.695050835609436</v>
       </c>
       <c r="C224" t="n">
-        <v>0.05563753843307495</v>
+        <v>-1.817403316497803</v>
       </c>
       <c r="D224" t="n">
-        <v>-1.983672022819519</v>
+        <v>-1.101659536361694</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.078886747360229</v>
+        <v>1.722352027893066</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5943019390106201</v>
+        <v>-1.306734085083008</v>
       </c>
       <c r="D225" t="n">
-        <v>-1.7143235206604</v>
+        <v>-1.114745855331421</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1.018486142158508</v>
+        <v>1.467812061309814</v>
       </c>
       <c r="C226" t="n">
-        <v>0.3836378455162048</v>
+        <v>-1.158647894859314</v>
       </c>
       <c r="D226" t="n">
-        <v>-1.539883852005005</v>
+        <v>-0.9315472841262817</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.8402514457702637</v>
+        <v>1.50949227809906</v>
       </c>
       <c r="C227" t="n">
-        <v>0.5501512289047241</v>
+        <v>-1.229958295822144</v>
       </c>
       <c r="D227" t="n">
-        <v>-1.399720549583435</v>
+        <v>-1.151456356048584</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.487207174301147</v>
+        <v>1.875197410583496</v>
       </c>
       <c r="C228" t="n">
-        <v>0.5960116386413574</v>
+        <v>-1.719464302062988</v>
       </c>
       <c r="D228" t="n">
-        <v>-2.268206357955933</v>
+        <v>-1.37568736076355</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1.296494960784912</v>
+        <v>1.889331817626953</v>
       </c>
       <c r="C229" t="n">
-        <v>0.6476556658744812</v>
+        <v>-1.577447772026062</v>
       </c>
       <c r="D229" t="n">
-        <v>-2.13915228843689</v>
+        <v>-1.428772926330566</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.9732969999313354</v>
+        <v>1.342810750007629</v>
       </c>
       <c r="C230" t="n">
-        <v>0.3311251997947693</v>
+        <v>-1.069634199142456</v>
       </c>
       <c r="D230" t="n">
-        <v>-1.444507956504822</v>
+        <v>-0.8671722412109375</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1.190636038780212</v>
+        <v>1.603963732719421</v>
       </c>
       <c r="C231" t="n">
-        <v>0.3296476900577545</v>
+        <v>-1.36201000213623</v>
       </c>
       <c r="D231" t="n">
-        <v>-1.710100293159485</v>
+        <v>-1.039413571357727</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.3095543384552</v>
+        <v>1.671090245246887</v>
       </c>
       <c r="C232" t="n">
-        <v>0.2130097448825836</v>
+        <v>-1.502896070480347</v>
       </c>
       <c r="D232" t="n">
-        <v>-1.748564124107361</v>
+        <v>-1.011323928833008</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.8317668437957764</v>
+        <v>0.7609637975692749</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.02139058709144592</v>
+        <v>-0.508014976978302</v>
       </c>
       <c r="D233" t="n">
-        <v>-1.075315594673157</v>
+        <v>-0.4813775420188904</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.8709827661514282</v>
+        <v>1.43692684173584</v>
       </c>
       <c r="C234" t="n">
-        <v>0.4923020899295807</v>
+        <v>-1.092047095298767</v>
       </c>
       <c r="D234" t="n">
-        <v>-1.3731290102005</v>
+        <v>-1.026189923286438</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>2.271447658538818</v>
+        <v>1.71726393699646</v>
       </c>
       <c r="C235" t="n">
-        <v>0.1878058612346649</v>
+        <v>-2.064651012420654</v>
       </c>
       <c r="D235" t="n">
-        <v>-3.054330587387085</v>
+        <v>-1.540361642837524</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>2.096142530441284</v>
+        <v>1.698167085647583</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1456305384635925</v>
+        <v>-2.048686981201172</v>
       </c>
       <c r="D236" t="n">
-        <v>-2.855058431625366</v>
+        <v>-1.430793642997742</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.8906098604202271</v>
+        <v>0.7882316112518311</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.09863623976707458</v>
+        <v>-0.5142182111740112</v>
       </c>
       <c r="D237" t="n">
-        <v>-1.082240104675293</v>
+        <v>-0.5473955869674683</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.9506416916847229</v>
+        <v>1.240046739578247</v>
       </c>
       <c r="C238" t="n">
-        <v>0.1944365054368973</v>
+        <v>-0.8452332615852356</v>
       </c>
       <c r="D238" t="n">
-        <v>-1.32167112827301</v>
+        <v>-0.6390956044197083</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>2.354749202728271</v>
+        <v>1.970939755439758</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.6405695080757141</v>
+        <v>-2.46639084815979</v>
       </c>
       <c r="D239" t="n">
-        <v>-3.181865692138672</v>
+        <v>-2.362502813339233</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.216540932655334</v>
+        <v>1.847327589988708</v>
       </c>
       <c r="C240" t="n">
-        <v>0.4608058929443359</v>
+        <v>-1.61525559425354</v>
       </c>
       <c r="D240" t="n">
-        <v>-1.850172877311707</v>
+        <v>-1.17560338973999</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.7291545867919922</v>
+        <v>1.183580040931702</v>
       </c>
       <c r="C241" t="n">
-        <v>0.3327838182449341</v>
+        <v>-0.8027884960174561</v>
       </c>
       <c r="D241" t="n">
-        <v>-1.068313717842102</v>
+        <v>-0.8157708048820496</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.236545920372009</v>
+        <v>1.566563129425049</v>
       </c>
       <c r="C242" t="n">
-        <v>0.2305621951818466</v>
+        <v>-1.348569750785828</v>
       </c>
       <c r="D242" t="n">
-        <v>-1.700125098228455</v>
+        <v>-0.9664435386657715</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.157108426094055</v>
+        <v>1.932680130004883</v>
       </c>
       <c r="C243" t="n">
-        <v>0.6142971515655518</v>
+        <v>-1.607157945632935</v>
       </c>
       <c r="D243" t="n">
-        <v>-1.889061331748962</v>
+        <v>-1.22212553024292</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1.222806811332703</v>
+        <v>1.980708360671997</v>
       </c>
       <c r="C244" t="n">
-        <v>0.6928938031196594</v>
+        <v>-1.72327446937561</v>
       </c>
       <c r="D244" t="n">
-        <v>-2.012735605239868</v>
+        <v>-1.324946522712708</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1.040824174880981</v>
+        <v>0.9494722485542297</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.09686753153800964</v>
+        <v>-0.7060214877128601</v>
       </c>
       <c r="D245" t="n">
-        <v>-1.225810408592224</v>
+        <v>-0.5983519554138184</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1.104692578315735</v>
+        <v>1.617084383964539</v>
       </c>
       <c r="C246" t="n">
-        <v>0.4487584829330444</v>
+        <v>-1.284402847290039</v>
       </c>
       <c r="D246" t="n">
-        <v>-1.682006239891052</v>
+        <v>-1.078118205070496</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1.120973467826843</v>
+        <v>1.609013080596924</v>
       </c>
       <c r="C247" t="n">
-        <v>0.4368684887886047</v>
+        <v>-1.310835838317871</v>
       </c>
       <c r="D247" t="n">
-        <v>-1.707059741020203</v>
+        <v>-1.088499546051025</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.6823168992996216</v>
+        <v>1.146308541297913</v>
       </c>
       <c r="C248" t="n">
-        <v>0.3059869110584259</v>
+        <v>-0.7878904342651367</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.982232928276062</v>
+        <v>-0.8119146227836609</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.9477454423904419</v>
+        <v>0.3659458458423615</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.6637644171714783</v>
+        <v>0.09384304285049438</v>
       </c>
       <c r="D249" t="n">
-        <v>-1.538864016532898</v>
+        <v>-0.04138682410120964</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1.016165018081665</v>
+        <v>1.553246736526489</v>
       </c>
       <c r="C250" t="n">
-        <v>0.472882091999054</v>
+        <v>-1.143141984939575</v>
       </c>
       <c r="D250" t="n">
-        <v>-1.594569683074951</v>
+        <v>-0.9476971626281738</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1.014678359031677</v>
+        <v>1.530874967575073</v>
       </c>
       <c r="C251" t="n">
-        <v>0.4360249042510986</v>
+        <v>-1.44259238243103</v>
       </c>
       <c r="D251" t="n">
-        <v>-1.668111681938171</v>
+        <v>-1.188320159912109</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.491797089576721</v>
+        <v>2.041367530822754</v>
       </c>
       <c r="C252" t="n">
-        <v>0.8203224539756775</v>
+        <v>-1.888782024383545</v>
       </c>
       <c r="D252" t="n">
-        <v>-2.321833848953247</v>
+        <v>-1.464727163314819</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.9904239177703857</v>
+        <v>1.463539361953735</v>
       </c>
       <c r="C253" t="n">
-        <v>0.4360338449478149</v>
+        <v>-1.116962909698486</v>
       </c>
       <c r="D253" t="n">
-        <v>-1.514052271842957</v>
+        <v>-1.04960560798645</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>2.407487392425537</v>
+        <v>2.191665410995483</v>
       </c>
       <c r="C254" t="n">
-        <v>0.9113438129425049</v>
+        <v>-2.383762836456299</v>
       </c>
       <c r="D254" t="n">
-        <v>-3.202682256698608</v>
+        <v>-1.850313186645508</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>2.261837005615234</v>
+        <v>2.194661140441895</v>
       </c>
       <c r="C255" t="n">
-        <v>0.9565211534500122</v>
+        <v>-2.317273378372192</v>
       </c>
       <c r="D255" t="n">
-        <v>-3.040512084960938</v>
+        <v>-1.799593210220337</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1.451243042945862</v>
+        <v>1.69196343421936</v>
       </c>
       <c r="C256" t="n">
-        <v>0.09677103906869888</v>
+        <v>-1.785889506340027</v>
       </c>
       <c r="D256" t="n">
-        <v>-2.091816902160645</v>
+        <v>-1.118486285209656</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1.06633460521698</v>
+        <v>1.910319924354553</v>
       </c>
       <c r="C257" t="n">
-        <v>0.7480927705764771</v>
+        <v>-1.538529872894287</v>
       </c>
       <c r="D257" t="n">
-        <v>-1.831395268440247</v>
+        <v>-1.29996645450592</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1.767339825630188</v>
+        <v>2.073339939117432</v>
       </c>
       <c r="C258" t="n">
-        <v>0.9205474257469177</v>
+        <v>-1.947880387306213</v>
       </c>
       <c r="D258" t="n">
-        <v>-2.55016827583313</v>
+        <v>-1.599368810653687</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1.084937930107117</v>
+        <v>1.837984323501587</v>
       </c>
       <c r="C259" t="n">
-        <v>0.687147855758667</v>
+        <v>-1.428768515586853</v>
       </c>
       <c r="D259" t="n">
-        <v>-1.821822762489319</v>
+        <v>-1.210275650024414</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.9634311199188232</v>
+        <v>1.097713232040405</v>
       </c>
       <c r="C260" t="n">
-        <v>0.09161962568759918</v>
+        <v>-0.9604798555374146</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.218964457511902</v>
+        <v>-0.8275606632232666</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1.107932090759277</v>
+        <v>1.74116849899292</v>
       </c>
       <c r="C261" t="n">
-        <v>0.5717154145240784</v>
+        <v>-1.426009297370911</v>
       </c>
       <c r="D261" t="n">
-        <v>-1.783447265625</v>
+        <v>-1.189475297927856</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1.364572644233704</v>
+        <v>1.856478333473206</v>
       </c>
       <c r="C262" t="n">
-        <v>0.5830727219581604</v>
+        <v>-1.657591819763184</v>
       </c>
       <c r="D262" t="n">
-        <v>-2.18169903755188</v>
+        <v>-1.348783612251282</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1.687850832939148</v>
+        <v>1.265385270118713</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.3799259066581726</v>
+        <v>-1.364106416702271</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.905612349510193</v>
+        <v>-0.7585816383361816</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.736776947975159</v>
+        <v>1.796761035919189</v>
       </c>
       <c r="C264" t="n">
-        <v>0.367790162563324</v>
+        <v>-1.851763248443604</v>
       </c>
       <c r="D264" t="n">
-        <v>-2.498327732086182</v>
+        <v>-1.383623600006104</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1.717997908592224</v>
+        <v>1.455244898796082</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.4249879121780396</v>
+        <v>-1.982202768325806</v>
       </c>
       <c r="D265" t="n">
-        <v>-2.297591209411621</v>
+        <v>-0.9938515424728394</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>2.359857797622681</v>
+        <v>1.864534378051758</v>
       </c>
       <c r="C266" t="n">
-        <v>0.3649956583976746</v>
+        <v>-2.241350889205933</v>
       </c>
       <c r="D266" t="n">
-        <v>-3.09696364402771</v>
+        <v>-1.500324368476868</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1.470376372337341</v>
+        <v>1.469820022583008</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.1931823492050171</v>
+        <v>-1.324858784675598</v>
       </c>
       <c r="D267" t="n">
-        <v>-1.576525807380676</v>
+        <v>-0.7424514293670654</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1.212392807006836</v>
+        <v>1.928300619125366</v>
       </c>
       <c r="C268" t="n">
-        <v>0.6100088357925415</v>
+        <v>-1.631335496902466</v>
       </c>
       <c r="D268" t="n">
-        <v>-1.970682263374329</v>
+        <v>-1.270333051681519</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.9187619686126709</v>
+        <v>1.339973449707031</v>
       </c>
       <c r="C269" t="n">
-        <v>0.384033590555191</v>
+        <v>-0.89768385887146</v>
       </c>
       <c r="D269" t="n">
-        <v>-1.28775680065155</v>
+        <v>-0.8277652263641357</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>2.961353778839111</v>
+        <v>2.273064374923706</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.4294846653938293</v>
+        <v>-2.906028032302856</v>
       </c>
       <c r="D270" t="n">
-        <v>-3.744008779525757</v>
+        <v>-2.75126051902771</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>4.569732666015625</v>
+        <v>0.7789243459701538</v>
       </c>
       <c r="C271" t="n">
-        <v>-2.70654821395874</v>
+        <v>-1.504477262496948</v>
       </c>
       <c r="D271" t="n">
-        <v>-5.164294242858887</v>
+        <v>-1.281020879745483</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>3.031819105148315</v>
+        <v>1.78066873550415</v>
       </c>
       <c r="C272" t="n">
-        <v>0.155611664056778</v>
+        <v>-2.537341833114624</v>
       </c>
       <c r="D272" t="n">
-        <v>-3.862495183944702</v>
+        <v>-1.718273401260376</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1.370241761207581</v>
+        <v>1.823194265365601</v>
       </c>
       <c r="C273" t="n">
-        <v>0.2843632996082306</v>
+        <v>-1.814990520477295</v>
       </c>
       <c r="D273" t="n">
-        <v>-2.109532594680786</v>
+        <v>-1.269342184066772</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>1.89582622051239</v>
+        <v>1.782673835754395</v>
       </c>
       <c r="C274" t="n">
-        <v>0.3928110301494598</v>
+        <v>-1.908505916595459</v>
       </c>
       <c r="D274" t="n">
-        <v>-2.638350963592529</v>
+        <v>-1.44200611114502</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1.853141665458679</v>
+        <v>1.567912817001343</v>
       </c>
       <c r="C275" t="n">
-        <v>0.00374150276184082</v>
+        <v>-1.748532295227051</v>
       </c>
       <c r="D275" t="n">
-        <v>-2.636374235153198</v>
+        <v>-1.45072066783905</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0.9095984101295471</v>
+        <v>1.10850715637207</v>
       </c>
       <c r="C276" t="n">
-        <v>0.1041373535990715</v>
+        <v>-0.7762381434440613</v>
       </c>
       <c r="D276" t="n">
-        <v>-1.248828530311584</v>
+        <v>-0.6712622046470642</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>1.26293957233429</v>
+        <v>1.618131160736084</v>
       </c>
       <c r="C277" t="n">
-        <v>0.2216257452964783</v>
+        <v>-1.415444493293762</v>
       </c>
       <c r="D277" t="n">
-        <v>-1.744889140129089</v>
+        <v>-0.9978523254394531</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>1.293465971946716</v>
+        <v>1.197560548782349</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.1123418211936951</v>
+        <v>-1.026813745498657</v>
       </c>
       <c r="D278" t="n">
-        <v>-1.443390369415283</v>
+        <v>-0.7144880294799805</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>2.242472648620605</v>
+        <v>2.106342554092407</v>
       </c>
       <c r="C279" t="n">
-        <v>0.08777657151222229</v>
+        <v>-2.336431980133057</v>
       </c>
       <c r="D279" t="n">
-        <v>-3.044414758682251</v>
+        <v>-2.171815633773804</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>1.814969539642334</v>
+        <v>2.08919095993042</v>
       </c>
       <c r="C280" t="n">
-        <v>0.9093065857887268</v>
+        <v>-1.925794720649719</v>
       </c>
       <c r="D280" t="n">
-        <v>-2.595801830291748</v>
+        <v>-1.70258641242981</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>1.738487601280212</v>
+        <v>1.545403480529785</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.3399074673652649</v>
+        <v>-2.06753945350647</v>
       </c>
       <c r="D281" t="n">
-        <v>-2.514241695404053</v>
+        <v>-1.277388095855713</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>1.884814381599426</v>
+        <v>1.441217064857483</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.2703158259391785</v>
+        <v>-1.901271343231201</v>
       </c>
       <c r="D282" t="n">
-        <v>-2.833345174789429</v>
+        <v>-1.325960755348206</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>1.652297139167786</v>
+        <v>1.420872807502747</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.3196622133255005</v>
+        <v>-1.680500030517578</v>
       </c>
       <c r="D283" t="n">
-        <v>-2.099080801010132</v>
+        <v>-0.9361602067947388</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>1.28326404094696</v>
+        <v>0.8352584838867188</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.3206489086151123</v>
+        <v>-0.7470477223396301</v>
       </c>
       <c r="D284" t="n">
-        <v>-1.295962333679199</v>
+        <v>-0.5524070262908936</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>1.102996826171875</v>
+        <v>1.774319767951965</v>
       </c>
       <c r="C285" t="n">
-        <v>0.594498872756958</v>
+        <v>-1.418272376060486</v>
       </c>
       <c r="D285" t="n">
-        <v>-1.796176314353943</v>
+        <v>-1.170589804649353</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>1.502351403236389</v>
+        <v>1.527372598648071</v>
       </c>
       <c r="C286" t="n">
-        <v>0.03394919633865356</v>
+        <v>-1.55962872505188</v>
       </c>
       <c r="D286" t="n">
-        <v>-2.102864503860474</v>
+        <v>-1.09511923789978</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>1.554163575172424</v>
+        <v>1.941470861434937</v>
       </c>
       <c r="C287" t="n">
-        <v>0.6788378953933716</v>
+        <v>-1.815127611160278</v>
       </c>
       <c r="D287" t="n">
-        <v>-2.33992600440979</v>
+        <v>-1.42572808265686</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>1.479032397270203</v>
+        <v>1.318385481834412</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.2282658815383911</v>
+        <v>-1.275882244110107</v>
       </c>
       <c r="D288" t="n">
-        <v>-1.716429710388184</v>
+        <v>-0.7036910057067871</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>1.422333598136902</v>
+        <v>1.425417900085449</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.1066061854362488</v>
+        <v>-1.242525935173035</v>
       </c>
       <c r="D289" t="n">
-        <v>-1.646680235862732</v>
+        <v>-0.7231149673461914</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>1.44709050655365</v>
+        <v>1.869259357452393</v>
       </c>
       <c r="C290" t="n">
-        <v>0.5628581047058105</v>
+        <v>-1.563668608665466</v>
       </c>
       <c r="D290" t="n">
-        <v>-2.232347249984741</v>
+        <v>-1.435895204544067</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>1.265919327735901</v>
+        <v>1.836560964584351</v>
       </c>
       <c r="C291" t="n">
-        <v>0.6212599277496338</v>
+        <v>-1.541278600692749</v>
       </c>
       <c r="D291" t="n">
-        <v>-2.039404392242432</v>
+        <v>-1.30327582359314</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>1.899687886238098</v>
+        <v>1.859374642372131</v>
       </c>
       <c r="C292" t="n">
-        <v>0.554753839969635</v>
+        <v>-1.87129020690918</v>
       </c>
       <c r="D292" t="n">
-        <v>-2.637526512145996</v>
+        <v>-1.582510709762573</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>1.080548167228699</v>
+        <v>1.686170101165771</v>
       </c>
       <c r="C293" t="n">
-        <v>0.5594906806945801</v>
+        <v>-1.345574378967285</v>
       </c>
       <c r="D293" t="n">
-        <v>-1.70659863948822</v>
+        <v>-1.173128366470337</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>1.086292386054993</v>
+        <v>1.743591547012329</v>
       </c>
       <c r="C294" t="n">
-        <v>0.5811492204666138</v>
+        <v>-1.47951078414917</v>
       </c>
       <c r="D294" t="n">
-        <v>-1.79447329044342</v>
+        <v>-1.233477234840393</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>0.8756883144378662</v>
+        <v>1.35801887512207</v>
       </c>
       <c r="C295" t="n">
-        <v>0.4031908512115479</v>
+        <v>-0.975632905960083</v>
       </c>
       <c r="D295" t="n">
-        <v>-1.386632084846497</v>
+        <v>-0.8112534284591675</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>0.8049326539039612</v>
+        <v>1.267040729522705</v>
       </c>
       <c r="C296" t="n">
-        <v>0.3714800477027893</v>
+        <v>-0.9104310870170593</v>
       </c>
       <c r="D296" t="n">
-        <v>-1.192475914955139</v>
+        <v>-0.874291718006134</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>2.29728889465332</v>
+        <v>1.826096892356873</v>
       </c>
       <c r="C297" t="n">
-        <v>0.4453107714653015</v>
+        <v>-2.111670255661011</v>
       </c>
       <c r="D297" t="n">
-        <v>-3.080746412277222</v>
+        <v>-1.61906361579895</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>1.517089486122131</v>
+        <v>1.601886510848999</v>
       </c>
       <c r="C298" t="n">
-        <v>0.2413561791181564</v>
+        <v>-1.542787671089172</v>
       </c>
       <c r="D298" t="n">
-        <v>-2.173758029937744</v>
+        <v>-1.218057870864868</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>1.69384491443634</v>
+        <v>1.804105281829834</v>
       </c>
       <c r="C299" t="n">
-        <v>0.244409054517746</v>
+        <v>-1.664886355400085</v>
       </c>
       <c r="D299" t="n">
-        <v>-2.58755898475647</v>
+        <v>-1.626187801361084</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>2.310753345489502</v>
+        <v>1.719737529754639</v>
       </c>
       <c r="C300" t="n">
-        <v>-0.0593792200088501</v>
+        <v>-2.014736175537109</v>
       </c>
       <c r="D300" t="n">
-        <v>-3.139836549758911</v>
+        <v>-1.749870657920837</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>0.9133417010307312</v>
+        <v>1.481218576431274</v>
       </c>
       <c r="C301" t="n">
-        <v>0.5022274851799011</v>
+        <v>-1.114776849746704</v>
       </c>
       <c r="D301" t="n">
-        <v>-1.378940463066101</v>
+        <v>-1.055809020996094</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>1.603145003318787</v>
+        <v>1.912028431892395</v>
       </c>
       <c r="C302" t="n">
-        <v>0.6793806552886963</v>
+        <v>-1.824609398841858</v>
       </c>
       <c r="D302" t="n">
-        <v>-2.349216222763062</v>
+        <v>-1.465787410736084</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>1.062339663505554</v>
+        <v>1.348965525627136</v>
       </c>
       <c r="C303" t="n">
-        <v>0.2691169083118439</v>
+        <v>-1.024538159370422</v>
       </c>
       <c r="D303" t="n">
-        <v>-1.488540768623352</v>
+        <v>-0.8874039649963379</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>1.519634127616882</v>
+        <v>2.079639911651611</v>
       </c>
       <c r="C304" t="n">
-        <v>0.9423375725746155</v>
+        <v>-1.868230581283569</v>
       </c>
       <c r="D304" t="n">
-        <v>-2.337491273880005</v>
+        <v>-1.520408868789673</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>1.949339747428894</v>
+        <v>0.9920783638954163</v>
       </c>
       <c r="C305" t="n">
-        <v>-0.3109579086303711</v>
+        <v>-1.379788517951965</v>
       </c>
       <c r="D305" t="n">
-        <v>-2.929611682891846</v>
+        <v>-1.162254571914673</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>1.298851013183594</v>
+        <v>1.330093145370483</v>
       </c>
       <c r="C306" t="n">
-        <v>-0.02903661131858826</v>
+        <v>-1.167436361312866</v>
       </c>
       <c r="D306" t="n">
-        <v>-1.55298113822937</v>
+        <v>-0.7848688364028931</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>1.508691906929016</v>
+        <v>1.963207125663757</v>
       </c>
       <c r="C307" t="n">
-        <v>0.6309002637863159</v>
+        <v>-1.919481754302979</v>
       </c>
       <c r="D307" t="n">
-        <v>-2.270687103271484</v>
+        <v>-1.391602635383606</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>1.243203520774841</v>
+        <v>1.867350101470947</v>
       </c>
       <c r="C308" t="n">
-        <v>0.5188648700714111</v>
+        <v>-1.680940866470337</v>
       </c>
       <c r="D308" t="n">
-        <v>-2.017450571060181</v>
+        <v>-1.267194032669067</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0.6437472105026245</v>
+        <v>0.8305848240852356</v>
       </c>
       <c r="C309" t="n">
-        <v>-0.06310829520225525</v>
+        <v>-0.3462345600128174</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.8342962265014648</v>
+        <v>-0.373701423406601</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>1.312540173530579</v>
+        <v>1.594274759292603</v>
       </c>
       <c r="C310" t="n">
-        <v>0.1594492495059967</v>
+        <v>-1.437207698822021</v>
       </c>
       <c r="D310" t="n">
-        <v>-1.739655017852783</v>
+        <v>-0.9384286403656006</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>1.026740550994873</v>
+        <v>1.336783170700073</v>
       </c>
       <c r="C311" t="n">
-        <v>0.252216100692749</v>
+        <v>-1.034665584564209</v>
       </c>
       <c r="D311" t="n">
-        <v>-1.403834462165833</v>
+        <v>-0.9178687334060669</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>2.04210352897644</v>
+        <v>2.07780647277832</v>
       </c>
       <c r="C312" t="n">
-        <v>0.8600433468818665</v>
+        <v>-2.087359666824341</v>
       </c>
       <c r="D312" t="n">
-        <v>-2.81983470916748</v>
+        <v>-1.697181701660156</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>2.149555921554565</v>
+        <v>1.845166325569153</v>
       </c>
       <c r="C313" t="n">
-        <v>0.3508787155151367</v>
+        <v>-1.995196342468262</v>
       </c>
       <c r="D313" t="n">
-        <v>-3.003026723861694</v>
+        <v>-1.660322904586792</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>1.399086117744446</v>
+        <v>2.056516647338867</v>
       </c>
       <c r="C314" t="n">
-        <v>0.8956511616706848</v>
+        <v>-1.778997182846069</v>
       </c>
       <c r="D314" t="n">
-        <v>-2.196527719497681</v>
+        <v>-1.449475288391113</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>1.203766226768494</v>
+        <v>1.931630849838257</v>
       </c>
       <c r="C315" t="n">
-        <v>0.5850990414619446</v>
+        <v>-1.686032891273499</v>
       </c>
       <c r="D315" t="n">
-        <v>-1.970259308815002</v>
+        <v>-1.267126560211182</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>1.772416234016418</v>
+        <v>2.105638742446899</v>
       </c>
       <c r="C316" t="n">
-        <v>0.9540821313858032</v>
+        <v>-1.960784554481506</v>
       </c>
       <c r="D316" t="n">
-        <v>-2.536568880081177</v>
+        <v>-1.603064060211182</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>2.377815723419189</v>
+        <v>1.660306692123413</v>
       </c>
       <c r="C317" t="n">
-        <v>0.08402693271636963</v>
+        <v>-2.006615161895752</v>
       </c>
       <c r="D317" t="n">
-        <v>-3.135798931121826</v>
+        <v>-1.63579797744751</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>0.8797061443328857</v>
+        <v>1.469584703445435</v>
       </c>
       <c r="C318" t="n">
-        <v>0.4885223507881165</v>
+        <v>-1.078276038169861</v>
       </c>
       <c r="D318" t="n">
-        <v>-1.270114779472351</v>
+        <v>-1.060547113418579</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>1.709340333938599</v>
+        <v>1.565225481987</v>
       </c>
       <c r="C319" t="n">
-        <v>0.1293109357357025</v>
+        <v>-1.638342380523682</v>
       </c>
       <c r="D319" t="n">
-        <v>-2.501564264297485</v>
+        <v>-1.361210942268372</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2.145108461380005</v>
+        <v>2.016639232635498</v>
       </c>
       <c r="C320" t="n">
-        <v>0.6486654281616211</v>
+        <v>-2.218444108963013</v>
       </c>
       <c r="D320" t="n">
-        <v>-2.945761442184448</v>
+        <v>-1.650963187217712</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>1.742041707038879</v>
+        <v>1.29383397102356</v>
       </c>
       <c r="C321" t="n">
-        <v>-0.05663561820983887</v>
+        <v>-1.277997374534607</v>
       </c>
       <c r="D321" t="n">
-        <v>-2.245519876480103</v>
+        <v>-0.9322048425674438</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>1.824817776679993</v>
+        <v>1.601984620094299</v>
       </c>
       <c r="C322" t="n">
-        <v>-0.2002994120121002</v>
+        <v>-1.937903165817261</v>
       </c>
       <c r="D322" t="n">
-        <v>-2.552392482757568</v>
+        <v>-1.275490522384644</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0.8742777109146118</v>
+        <v>1.447033405303955</v>
       </c>
       <c r="C323" t="n">
-        <v>0.4783371984958649</v>
+        <v>-1.057690620422363</v>
       </c>
       <c r="D323" t="n">
-        <v>-1.329026460647583</v>
+        <v>-1.031184673309326</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>1.682842373847961</v>
+        <v>1.393066167831421</v>
       </c>
       <c r="C324" t="n">
-        <v>0.05186626315116882</v>
+        <v>-1.371699452400208</v>
       </c>
       <c r="D324" t="n">
-        <v>-2.233252286911011</v>
+        <v>-1.024527788162231</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>1.068593263626099</v>
+        <v>1.4012131690979</v>
       </c>
       <c r="C325" t="n">
-        <v>0.2512962818145752</v>
+        <v>-1.085117340087891</v>
       </c>
       <c r="D325" t="n">
-        <v>-1.517340660095215</v>
+        <v>-0.8448623418807983</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>1.349685549736023</v>
+        <v>1.804678320884705</v>
       </c>
       <c r="C326" t="n">
-        <v>0.4112759530544281</v>
+        <v>-1.658696055412292</v>
       </c>
       <c r="D326" t="n">
-        <v>-2.090485811233521</v>
+        <v>-1.246204614639282</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>1.343974232673645</v>
+        <v>0.6339850425720215</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.4710763096809387</v>
+        <v>-0.7128722071647644</v>
       </c>
       <c r="D327" t="n">
-        <v>-1.422419786453247</v>
+        <v>-0.4300385117530823</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0.373285710811615</v>
+        <v>1.155701518058777</v>
       </c>
       <c r="C328" t="n">
-        <v>0.421633780002594</v>
+        <v>-1.042093396186829</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.685469388961792</v>
+        <v>-1.149261951446533</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>1.904780030250549</v>
+        <v>1.258692264556885</v>
       </c>
       <c r="C329" t="n">
-        <v>-0.3906688690185547</v>
+        <v>-1.616060733795166</v>
       </c>
       <c r="D329" t="n">
-        <v>-2.51676344871521</v>
+        <v>-1.024895429611206</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>1.008857131004333</v>
+        <v>1.624077081680298</v>
       </c>
       <c r="C330" t="n">
-        <v>0.5486311316490173</v>
+        <v>-1.237083435058594</v>
       </c>
       <c r="D330" t="n">
-        <v>-1.655926942825317</v>
+        <v>-1.089826583862305</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>1.953669548034668</v>
+        <v>1.336763501167297</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.05863577127456665</v>
+        <v>-1.409614324569702</v>
       </c>
       <c r="D331" t="n">
-        <v>-2.578842163085938</v>
+        <v>-1.180095195770264</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>1.556666731834412</v>
+        <v>1.896321058273315</v>
       </c>
       <c r="C332" t="n">
-        <v>0.5677974820137024</v>
+        <v>-1.738963961601257</v>
       </c>
       <c r="D332" t="n">
-        <v>-2.411772489547729</v>
+        <v>-1.557627558708191</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>1.108364462852478</v>
+        <v>1.787424921989441</v>
       </c>
       <c r="C333" t="n">
-        <v>0.6125569343566895</v>
+        <v>-1.334618091583252</v>
       </c>
       <c r="D333" t="n">
-        <v>-1.779241919517517</v>
+        <v>-1.120481610298157</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>1.191364049911499</v>
+        <v>1.795197248458862</v>
       </c>
       <c r="C334" t="n">
-        <v>0.4538252353668213</v>
+        <v>-1.540145397186279</v>
       </c>
       <c r="D334" t="n">
-        <v>-1.8501797914505</v>
+        <v>-1.138426184654236</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>1.405514121055603</v>
+        <v>1.78876519203186</v>
       </c>
       <c r="C335" t="n">
-        <v>0.1999649703502655</v>
+        <v>-1.874570727348328</v>
       </c>
       <c r="D335" t="n">
-        <v>-2.129271507263184</v>
+        <v>-1.275315165519714</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>1.196012139320374</v>
+        <v>0.6468405723571777</v>
       </c>
       <c r="C336" t="n">
-        <v>-0.5369522571563721</v>
+        <v>-0.3280660510063171</v>
       </c>
       <c r="D336" t="n">
-        <v>-1.373890280723572</v>
+        <v>-0.2659428119659424</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>1.020542860031128</v>
+        <v>1.305523037910461</v>
       </c>
       <c r="C337" t="n">
-        <v>0.2419353723526001</v>
+        <v>-0.979647159576416</v>
       </c>
       <c r="D337" t="n">
-        <v>-1.390805840492249</v>
+        <v>-0.8684942722320557</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>1.602028131484985</v>
+        <v>1.865591883659363</v>
       </c>
       <c r="C338" t="n">
-        <v>0.6463913321495056</v>
+        <v>-1.740432977676392</v>
       </c>
       <c r="D338" t="n">
-        <v>-2.380555629730225</v>
+        <v>-1.448298931121826</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>1.509048104286194</v>
+        <v>1.631080031394958</v>
       </c>
       <c r="C339" t="n">
-        <v>0.02195157110691071</v>
+        <v>-1.698743581771851</v>
       </c>
       <c r="D339" t="n">
-        <v>-2.06499457359314</v>
+        <v>-1.080129384994507</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>0.9316228628158569</v>
+        <v>1.204395055770874</v>
       </c>
       <c r="C340" t="n">
-        <v>0.2750939428806305</v>
+        <v>-0.9644721150398254</v>
       </c>
       <c r="D340" t="n">
-        <v>-1.327100157737732</v>
+        <v>-0.7715123891830444</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>1.679380774497986</v>
+        <v>1.59140419960022</v>
       </c>
       <c r="C341" t="n">
-        <v>0.2912639081478119</v>
+        <v>-1.582931876182556</v>
       </c>
       <c r="D341" t="n">
-        <v>-2.410474061965942</v>
+        <v>-1.332585334777832</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>2.589183807373047</v>
+        <v>1.855226635932922</v>
       </c>
       <c r="C342" t="n">
-        <v>0.2156709730625153</v>
+        <v>-2.233155488967896</v>
       </c>
       <c r="D342" t="n">
-        <v>-3.357986688613892</v>
+        <v>-1.817284464836121</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>1.070929050445557</v>
+        <v>0.8223713040351868</v>
       </c>
       <c r="C343" t="n">
-        <v>-0.1917935609817505</v>
+        <v>-0.5405760407447815</v>
       </c>
       <c r="D343" t="n">
-        <v>-1.18494725227356</v>
+        <v>-0.5146944522857666</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>1.329277276992798</v>
+        <v>1.470300197601318</v>
       </c>
       <c r="C344" t="n">
-        <v>0.04917429387569427</v>
+        <v>-1.315585851669312</v>
       </c>
       <c r="D344" t="n">
-        <v>-1.636611580848694</v>
+        <v>-0.897104024887085</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>3.024293422698975</v>
+        <v>1.816864967346191</v>
       </c>
       <c r="C345" t="n">
-        <v>-1.366621494293213</v>
+        <v>-2.648517370223999</v>
       </c>
       <c r="D345" t="n">
-        <v>-3.672191858291626</v>
+        <v>-2.549652814865112</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>0.6620520353317261</v>
+        <v>0.7815735936164856</v>
       </c>
       <c r="C346" t="n">
-        <v>-0.095685213804245</v>
+        <v>-0.2713731229305267</v>
       </c>
       <c r="D346" t="n">
-        <v>-1.120290517807007</v>
+        <v>-0.2901816368103027</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>1.513290166854858</v>
+        <v>1.470763325691223</v>
       </c>
       <c r="C347" t="n">
-        <v>-0.2442870140075684</v>
+        <v>-1.602807998657227</v>
       </c>
       <c r="D347" t="n">
-        <v>-1.787649750709534</v>
+        <v>-0.8022712469100952</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>1.529066801071167</v>
+        <v>1.607170224189758</v>
       </c>
       <c r="C348" t="n">
-        <v>0.1793120503425598</v>
+        <v>-1.535624861717224</v>
       </c>
       <c r="D348" t="n">
-        <v>-2.120521783828735</v>
+        <v>-1.106483817100525</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>1.307575225830078</v>
+        <v>1.970064997673035</v>
       </c>
       <c r="C349" t="n">
-        <v>0.6223359704017639</v>
+        <v>-1.805373191833496</v>
       </c>
       <c r="D349" t="n">
-        <v>-2.036037683486938</v>
+        <v>-1.313020944595337</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>1.048362731933594</v>
+        <v>1.913417935371399</v>
       </c>
       <c r="C350" t="n">
-        <v>0.7611989974975586</v>
+        <v>-1.546604633331299</v>
       </c>
       <c r="D350" t="n">
-        <v>-1.832968354225159</v>
+        <v>-1.322087645530701</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>0.9875960350036621</v>
+        <v>1.696277379989624</v>
       </c>
       <c r="C351" t="n">
-        <v>0.6176111102104187</v>
+        <v>-1.347237586975098</v>
       </c>
       <c r="D351" t="n">
-        <v>-1.644622445106506</v>
+        <v>-1.23522686958313</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>0.7033337354660034</v>
+        <v>1.158981800079346</v>
       </c>
       <c r="C352" t="n">
-        <v>0.3152672052383423</v>
+        <v>-0.7962382435798645</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.9346904754638672</v>
+        <v>-0.8355430364608765</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>1.333266615867615</v>
+        <v>1.894801616668701</v>
       </c>
       <c r="C353" t="n">
-        <v>0.6173964738845825</v>
+        <v>-1.631090402603149</v>
       </c>
       <c r="D353" t="n">
-        <v>-2.143980741500854</v>
+        <v>-1.34673810005188</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>1.478128790855408</v>
+        <v>1.617622137069702</v>
       </c>
       <c r="C354" t="n">
-        <v>0.04173183441162109</v>
+        <v>-1.647391200065613</v>
       </c>
       <c r="D354" t="n">
-        <v>-1.95478880405426</v>
+        <v>-1.027627229690552</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>2.312564373016357</v>
+        <v>1.352301597595215</v>
       </c>
       <c r="C355" t="n">
-        <v>-0.2733674645423889</v>
+        <v>-1.9360191822052</v>
       </c>
       <c r="D355" t="n">
-        <v>-3.086876630783081</v>
+        <v>-1.554187536239624</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>1.732549071311951</v>
+        <v>1.409538865089417</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.2740415036678314</v>
+        <v>-1.720369338989258</v>
       </c>
       <c r="D356" t="n">
-        <v>-2.289762258529663</v>
+        <v>-1.07209837436676</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>0.6794929504394531</v>
+        <v>0.9365328550338745</v>
       </c>
       <c r="C357" t="n">
-        <v>0.04489223659038544</v>
+        <v>-0.4628515541553497</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.6169586181640625</v>
+        <v>-0.5799316167831421</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>1.5268634557724</v>
+        <v>1.975742220878601</v>
       </c>
       <c r="C358" t="n">
-        <v>0.7902315258979797</v>
+        <v>-1.76104211807251</v>
       </c>
       <c r="D358" t="n">
-        <v>-2.378830432891846</v>
+        <v>-1.538129091262817</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>1.899625182151794</v>
+        <v>1.983720064163208</v>
       </c>
       <c r="C359" t="n">
-        <v>0.2661563158035278</v>
+        <v>-2.076079368591309</v>
       </c>
       <c r="D359" t="n">
-        <v>-2.728783130645752</v>
+        <v>-1.895229816436768</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>1.203341126441956</v>
+        <v>1.557394981384277</v>
       </c>
       <c r="C360" t="n">
-        <v>0.2625951170921326</v>
+        <v>-1.267350554466248</v>
       </c>
       <c r="D360" t="n">
-        <v>-1.666987180709839</v>
+        <v>-0.9488099813461304</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>2.037899017333984</v>
+        <v>2.064228057861328</v>
       </c>
       <c r="C361" t="n">
-        <v>0.8939732909202576</v>
+        <v>-1.989867925643921</v>
       </c>
       <c r="D361" t="n">
-        <v>-2.757452249526978</v>
+        <v>-1.687973737716675</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>0.6668516397476196</v>
+        <v>0.9501066207885742</v>
       </c>
       <c r="C362" t="n">
-        <v>0.1095889210700989</v>
+        <v>-0.5340248942375183</v>
       </c>
       <c r="D362" t="n">
-        <v>-0.9869527816772461</v>
+        <v>-0.5063040256500244</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>1.475876092910767</v>
+        <v>1.830693483352661</v>
       </c>
       <c r="C363" t="n">
-        <v>0.2271092087030411</v>
+        <v>-1.93347954750061</v>
       </c>
       <c r="D363" t="n">
-        <v>-2.182759284973145</v>
+        <v>-1.280816674232483</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>2.991714477539062</v>
+        <v>2.094038248062134</v>
       </c>
       <c r="C364" t="n">
-        <v>0.6476243734359741</v>
+        <v>-2.530421257019043</v>
       </c>
       <c r="D364" t="n">
-        <v>-3.709744453430176</v>
+        <v>-2.006435871124268</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>1.850602984428406</v>
+        <v>1.52465808391571</v>
       </c>
       <c r="C365" t="n">
-        <v>-0.08244496583938599</v>
+        <v>-1.414491415023804</v>
       </c>
       <c r="D365" t="n">
-        <v>-2.464023351669312</v>
+        <v>-1.344402313232422</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>0.9490103721618652</v>
+        <v>1.187803745269775</v>
       </c>
       <c r="C366" t="n">
-        <v>0.2021416425704956</v>
+        <v>-1.046966433525085</v>
       </c>
       <c r="D366" t="n">
-        <v>-1.293040156364441</v>
+        <v>-0.8887041807174683</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>2.005668163299561</v>
+        <v>1.810955047607422</v>
       </c>
       <c r="C367" t="n">
-        <v>0.4025330245494843</v>
+        <v>-2.001049280166626</v>
       </c>
       <c r="D367" t="n">
-        <v>-2.786314725875854</v>
+        <v>-1.476331472396851</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>1.166214108467102</v>
+        <v>1.945912003517151</v>
       </c>
       <c r="C368" t="n">
-        <v>0.6280077695846558</v>
+        <v>-1.6554856300354</v>
       </c>
       <c r="D368" t="n">
-        <v>-1.915680289268494</v>
+        <v>-1.264522790908813</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>1.564329266548157</v>
+        <v>1.797895073890686</v>
       </c>
       <c r="C369" t="n">
-        <v>0.3745407462120056</v>
+        <v>-1.799536108970642</v>
       </c>
       <c r="D369" t="n">
-        <v>-2.411908388137817</v>
+        <v>-1.499410033226013</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>1.49087381362915</v>
+        <v>1.742076635360718</v>
       </c>
       <c r="C370" t="n">
-        <v>0.3893257975578308</v>
+        <v>-1.638181686401367</v>
       </c>
       <c r="D370" t="n">
-        <v>-2.294479846954346</v>
+        <v>-1.365830779075623</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>1.219642519950867</v>
+        <v>1.437150835990906</v>
       </c>
       <c r="C371" t="n">
-        <v>0.1596673130989075</v>
+        <v>-1.313450217247009</v>
       </c>
       <c r="D371" t="n">
-        <v>-1.637179374694824</v>
+        <v>-0.9586865901947021</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>1.59208881855011</v>
+        <v>1.425751447677612</v>
       </c>
       <c r="C372" t="n">
-        <v>0.1321150362491608</v>
+        <v>-1.461001396179199</v>
       </c>
       <c r="D372" t="n">
-        <v>-2.237772941589355</v>
+        <v>-1.204053163528442</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>1.552972674369812</v>
+        <v>1.658784866333008</v>
       </c>
       <c r="C373" t="n">
-        <v>0.01539629697799683</v>
+        <v>-1.881749987602234</v>
       </c>
       <c r="D373" t="n">
-        <v>-2.259631156921387</v>
+        <v>-1.253318667411804</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>1.680248141288757</v>
+        <v>1.648561954498291</v>
       </c>
       <c r="C374" t="n">
-        <v>0.2236402928829193</v>
+        <v>-1.618364930152893</v>
       </c>
       <c r="D374" t="n">
-        <v>-2.48577094078064</v>
+        <v>-1.413765430450439</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>1.084018588066101</v>
+        <v>1.718940258026123</v>
       </c>
       <c r="C375" t="n">
-        <v>0.5730655193328857</v>
+        <v>-1.377562403678894</v>
       </c>
       <c r="D375" t="n">
-        <v>-1.728667497634888</v>
+        <v>-1.171883344650269</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>1.157150626182556</v>
+        <v>1.181295871734619</v>
       </c>
       <c r="C376" t="n">
-        <v>0.01462119817733765</v>
+        <v>-1.118817806243896</v>
       </c>
       <c r="D376" t="n">
-        <v>-1.452831983566284</v>
+        <v>-0.8101266026496887</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>2.006450414657593</v>
+        <v>1.489101648330688</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.1745994687080383</v>
+        <v>-1.686108231544495</v>
       </c>
       <c r="D377" t="n">
-        <v>-2.77371072769165</v>
+        <v>-1.472036123275757</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>1.563315153121948</v>
+        <v>1.694606184959412</v>
       </c>
       <c r="C378" t="n">
-        <v>0.2980611622333527</v>
+        <v>-1.647846341133118</v>
       </c>
       <c r="D378" t="n">
-        <v>-2.322658777236938</v>
+        <v>-1.312580585479736</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>1.971786141395569</v>
+        <v>1.763060569763184</v>
       </c>
       <c r="C379" t="n">
-        <v>0.1721144765615463</v>
+        <v>-1.953723788261414</v>
       </c>
       <c r="D379" t="n">
-        <v>-2.746512174606323</v>
+        <v>-1.679747700691223</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>1.089437365531921</v>
+        <v>1.798905968666077</v>
       </c>
       <c r="C380" t="n">
-        <v>0.6209959983825684</v>
+        <v>-1.395034551620483</v>
       </c>
       <c r="D380" t="n">
-        <v>-1.805276274681091</v>
+        <v>-1.154049158096313</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>1.12056028842926</v>
+        <v>1.79364275932312</v>
       </c>
       <c r="C381" t="n">
-        <v>0.5681253671646118</v>
+        <v>-1.502640008926392</v>
       </c>
       <c r="D381" t="n">
-        <v>-1.826293706893921</v>
+        <v>-1.213397026062012</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>2.141245126724243</v>
+        <v>1.398553252220154</v>
       </c>
       <c r="C382" t="n">
-        <v>-1.119977474212646</v>
+        <v>-1.857088327407837</v>
       </c>
       <c r="D382" t="n">
-        <v>-2.742224931716919</v>
+        <v>-1.90202522277832</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>1.556912064552307</v>
+        <v>1.626667737960815</v>
       </c>
       <c r="C383" t="n">
-        <v>0.1786348521709442</v>
+        <v>-1.668169736862183</v>
       </c>
       <c r="D383" t="n">
-        <v>-2.324122428894043</v>
+        <v>-1.294466733932495</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>2.181377410888672</v>
+        <v>1.70904529094696</v>
       </c>
       <c r="C384" t="n">
-        <v>-0.1246579885482788</v>
+        <v>-1.959407687187195</v>
       </c>
       <c r="D384" t="n">
-        <v>-2.978434324264526</v>
+        <v>-1.749212265014648</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>2.55314040184021</v>
+        <v>2.115688562393188</v>
       </c>
       <c r="C385" t="n">
-        <v>0.8611123561859131</v>
+        <v>-2.307537794113159</v>
       </c>
       <c r="D385" t="n">
-        <v>-3.285953760147095</v>
+        <v>-1.898627281188965</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>1.141328096389771</v>
+        <v>1.084667563438416</v>
       </c>
       <c r="C386" t="n">
-        <v>-0.08537966012954712</v>
+        <v>-0.8997887372970581</v>
       </c>
       <c r="D386" t="n">
-        <v>-1.362068295478821</v>
+        <v>-0.6649483442306519</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>1.070751428604126</v>
+        <v>1.616711139678955</v>
       </c>
       <c r="C387" t="n">
-        <v>0.4738575220108032</v>
+        <v>-1.202227592468262</v>
       </c>
       <c r="D387" t="n">
-        <v>-1.654871940612793</v>
+        <v>-1.003280401229858</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>0.7475579977035522</v>
+        <v>1.012254595756531</v>
       </c>
       <c r="C388" t="n">
-        <v>0.1698043942451477</v>
+        <v>-0.490353137254715</v>
       </c>
       <c r="D388" t="n">
-        <v>-0.9614826440811157</v>
+        <v>-0.4764166474342346</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>1.279967188835144</v>
+        <v>1.746615409851074</v>
       </c>
       <c r="C389" t="n">
-        <v>0.2915973663330078</v>
+        <v>-1.513225913047791</v>
       </c>
       <c r="D389" t="n">
-        <v>-1.802056789398193</v>
+        <v>-1.037957787513733</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>1.425830364227295</v>
+        <v>2.056050062179565</v>
       </c>
       <c r="C390" t="n">
-        <v>0.9007698893547058</v>
+        <v>-1.769546508789062</v>
       </c>
       <c r="D390" t="n">
-        <v>-2.218418836593628</v>
+        <v>-1.463128328323364</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>1.855279088020325</v>
+        <v>2.046419858932495</v>
       </c>
       <c r="C391" t="n">
-        <v>0.8819500207901001</v>
+        <v>-1.934370160102844</v>
       </c>
       <c r="D391" t="n">
-        <v>-2.651777505874634</v>
+        <v>-1.65545392036438</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>2.389779090881348</v>
+        <v>1.98800802230835</v>
       </c>
       <c r="C392" t="n">
-        <v>0.3945327997207642</v>
+        <v>-2.241054773330688</v>
       </c>
       <c r="D392" t="n">
-        <v>-3.214176416397095</v>
+        <v>-1.934818387031555</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>1.229460954666138</v>
+        <v>1.96387791633606</v>
       </c>
       <c r="C393" t="n">
-        <v>0.7462913990020752</v>
+        <v>-1.624611973762512</v>
       </c>
       <c r="D393" t="n">
-        <v>-1.999976277351379</v>
+        <v>-1.310263276100159</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>1.018592834472656</v>
+        <v>1.430815458297729</v>
       </c>
       <c r="C394" t="n">
-        <v>0.3470153510570526</v>
+        <v>-1.289421200752258</v>
       </c>
       <c r="D394" t="n">
-        <v>-1.579071164131165</v>
+        <v>-1.075994968414307</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>1.605691313743591</v>
+        <v>2.036557912826538</v>
       </c>
       <c r="C395" t="n">
-        <v>0.8839458823204041</v>
+        <v>-1.853535056114197</v>
       </c>
       <c r="D395" t="n">
-        <v>-2.392752170562744</v>
+        <v>-1.522724509239197</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>1.174144148826599</v>
+        <v>1.789575576782227</v>
       </c>
       <c r="C396" t="n">
-        <v>0.4596753120422363</v>
+        <v>-1.458766579627991</v>
       </c>
       <c r="D396" t="n">
-        <v>-1.793599843978882</v>
+        <v>-1.073050737380981</v>
       </c>
     </row>
     <row r="397">
@@ -5979,13 +5979,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>1.721698760986328</v>
+        <v>1.61667275428772</v>
       </c>
       <c r="C397" t="n">
-        <v>0.1954431682825089</v>
+        <v>-1.707694888114929</v>
       </c>
       <c r="D397" t="n">
-        <v>-2.520904779434204</v>
+        <v>-1.412736415863037</v>
       </c>
     </row>
     <row r="398">
@@ -5993,13 +5993,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>0.9206981658935547</v>
+        <v>1.40870213508606</v>
       </c>
       <c r="C398" t="n">
-        <v>0.4448677003383636</v>
+        <v>-0.9516037106513977</v>
       </c>
       <c r="D398" t="n">
-        <v>-1.405029892921448</v>
+        <v>-0.8315590620040894</v>
       </c>
     </row>
     <row r="399">
@@ -6007,13 +6007,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>1.594638109207153</v>
+        <v>1.688172101974487</v>
       </c>
       <c r="C399" t="n">
-        <v>0.2656787037849426</v>
+        <v>-1.735642194747925</v>
       </c>
       <c r="D399" t="n">
-        <v>-2.350398778915405</v>
+        <v>-1.331262230873108</v>
       </c>
     </row>
     <row r="400">
@@ -6021,13 +6021,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>1.131764888763428</v>
+        <v>1.700059175491333</v>
       </c>
       <c r="C400" t="n">
-        <v>0.4800311326980591</v>
+        <v>-1.40155565738678</v>
       </c>
       <c r="D400" t="n">
-        <v>-1.738554835319519</v>
+        <v>-1.130616188049316</v>
       </c>
     </row>
     <row r="401">
@@ -6035,13 +6035,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>1.080988168716431</v>
+        <v>1.360673666000366</v>
       </c>
       <c r="C401" t="n">
-        <v>0.240754172205925</v>
+        <v>-1.229449391365051</v>
       </c>
       <c r="D401" t="n">
-        <v>-1.502572655677795</v>
+        <v>-1.008876800537109</v>
       </c>
     </row>
     <row r="402">
@@ -6049,13 +6049,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>1.215283989906311</v>
+        <v>1.896697521209717</v>
       </c>
       <c r="C402" t="n">
-        <v>0.5135247111320496</v>
+        <v>-1.698991298675537</v>
       </c>
       <c r="D402" t="n">
-        <v>-1.943475484848022</v>
+        <v>-1.241174817085266</v>
       </c>
     </row>
     <row r="403">
@@ -6063,13 +6063,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>0.3864911198616028</v>
+        <v>1.335416674613953</v>
       </c>
       <c r="C403" t="n">
-        <v>0.5347064137458801</v>
+        <v>-1.141818284988403</v>
       </c>
       <c r="D403" t="n">
-        <v>-0.9555208683013916</v>
+        <v>-1.203126430511475</v>
       </c>
     </row>
     <row r="404">
@@ -6077,13 +6077,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>2.141012907028198</v>
+        <v>2.197546482086182</v>
       </c>
       <c r="C404" t="n">
-        <v>0.9951880574226379</v>
+        <v>-2.250911474227905</v>
       </c>
       <c r="D404" t="n">
-        <v>-2.986346960067749</v>
+        <v>-1.831179857254028</v>
       </c>
     </row>
     <row r="405">
@@ -6091,13 +6091,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>0.7360717058181763</v>
+        <v>1.156537413597107</v>
       </c>
       <c r="C405" t="n">
-        <v>0.3081086575984955</v>
+        <v>-0.7724030613899231</v>
       </c>
       <c r="D405" t="n">
-        <v>-1.039174795150757</v>
+        <v>-0.787624716758728</v>
       </c>
     </row>
     <row r="406">
@@ -6105,13 +6105,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>1.016412138938904</v>
+        <v>1.726052522659302</v>
       </c>
       <c r="C406" t="n">
-        <v>0.6308215856552124</v>
+        <v>-1.500727891921997</v>
       </c>
       <c r="D406" t="n">
-        <v>-1.737527966499329</v>
+        <v>-1.354006290435791</v>
       </c>
     </row>
     <row r="407">
@@ -6119,13 +6119,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>1.021422147750854</v>
+        <v>1.546317338943481</v>
       </c>
       <c r="C407" t="n">
-        <v>0.4375452399253845</v>
+        <v>-1.29940390586853</v>
       </c>
       <c r="D407" t="n">
-        <v>-1.608917832374573</v>
+        <v>-1.153429269790649</v>
       </c>
     </row>
     <row r="408">
@@ -6133,13 +6133,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>0.9035686850547791</v>
+        <v>1.291627645492554</v>
       </c>
       <c r="C408" t="n">
-        <v>0.3407194018363953</v>
+        <v>-1.026764035224915</v>
       </c>
       <c r="D408" t="n">
-        <v>-1.328472971916199</v>
+        <v>-0.9160456657409668</v>
       </c>
     </row>
     <row r="409">
@@ -6147,13 +6147,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>0.5503159165382385</v>
+        <v>0.9518099427223206</v>
       </c>
       <c r="C409" t="n">
-        <v>0.08211886882781982</v>
+        <v>-0.5384559631347656</v>
       </c>
       <c r="D409" t="n">
-        <v>-0.3914422392845154</v>
+        <v>-0.86747145652771</v>
       </c>
     </row>
   </sheetData>
